--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data_PJ1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJ1_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15AAFF1-C996-44C0-B44A-408A51CE5B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D239785-405E-4865-876A-1D5491DF8961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{75EB15F5-6549-4AF9-93AA-9FBCF00DD077}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{75EB15F5-6549-4AF9-93AA-9FBCF00DD077}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="308">
   <si>
     <t>ID</t>
   </si>
@@ -537,7 +537,7 @@
     <t>Total Level/ Total Group Skills</t>
   </si>
   <si>
-    <t>Programmers</t>
+    <t>Programmer</t>
   </si>
   <si>
     <t>Alex Johnson - 123 Main Street, Apt 4B, New York, NY 10001</t>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>Microsoft Project, Google Trends, Google Analytics, Exel, Java, OOP</t>
+  </si>
+  <si>
+    <t>Programmers</t>
   </si>
   <si>
     <t>Emily Davis - 456 Oak Avenue, Suite 302, Los Angeles, CA 90012</t>
@@ -643,9 +646,6 @@
   </si>
   <si>
     <t>MySQL: 5,  SQL Server: 5, SQL Mastery: 4</t>
-  </si>
-  <si>
-    <t>123$</t>
   </si>
   <si>
     <t>92$</t>
@@ -822,9 +822,6 @@
     <t>Brooke Turner - 890 Maple Court, Apt 16D, Minneapolis, MN 55401</t>
   </si>
   <si>
-    <t>Window Server: 3, Microsoft Window: 3, macOS: 3, CD Label Designer: 5, Virtual Box: 1</t>
-  </si>
-  <si>
     <t>Complexity</t>
   </si>
   <si>
@@ -966,7 +963,7 @@
     <t>Overtime</t>
   </si>
   <si>
-    <t>Programmer</t>
+    <t>Window Server: 3, Microsoft Window: 3, macOS: 3, CD Label Designer: 5, Virtual Box: 0</t>
   </si>
 </sst>
 </file>
@@ -2181,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E90FB4-D1DB-4866-B175-289A8F73D5F4}">
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="H16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2949,7 +2946,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18" customHeight="1">
+    <row r="30" spans="1:8" ht="17.399999999999999" customHeight="1">
       <c r="A30" s="24">
         <v>29</v>
       </c>
@@ -4837,8 +4834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01C00E2-0EE1-42B4-8CE3-426E7CB06078}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4847,7 +4844,7 @@
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="66.33203125" customWidth="1"/>
     <col min="4" max="4" width="0.5546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="93" customWidth="1"/>
+    <col min="5" max="5" width="95.5546875" customWidth="1"/>
     <col min="6" max="6" width="27.5546875" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
@@ -4937,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>308</v>
+        <v>165</v>
       </c>
       <c r="C2" s="38" t="s">
         <v>166</v>
@@ -4977,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="86" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="R2" s="85" t="s">
         <v>170</v>
@@ -4991,37 +4988,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>308</v>
+        <v>165</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>167</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="56" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H3" s="92" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J3" s="31">
         <v>2</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="L3" s="27">
         <v>4</v>
       </c>
       <c r="M3" s="28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N3" s="75" t="s">
         <v>36</v>
@@ -5030,10 +5027,10 @@
         <v>2</v>
       </c>
       <c r="Q3" s="86" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="R3" s="85" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y3" s="58">
         <v>0.57499999999999996</v>
@@ -5044,37 +5041,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>308</v>
+        <v>165</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H4" s="92" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J4" s="31">
         <v>3</v>
       </c>
       <c r="K4" s="91" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L4" s="27">
         <v>2</v>
       </c>
       <c r="M4" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N4" s="75" t="s">
         <v>19</v>
@@ -5083,10 +5080,10 @@
         <v>3</v>
       </c>
       <c r="Q4" s="86" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="R4" s="85" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y4" s="58">
         <v>0.42499999999999999</v>
@@ -5097,37 +5094,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>308</v>
+        <v>165</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>167</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H5" s="92" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J5" s="31">
         <v>4</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L5" s="27">
         <v>1</v>
       </c>
       <c r="M5" s="28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N5" s="75" t="s">
         <v>13</v>
@@ -5136,10 +5133,10 @@
         <v>4</v>
       </c>
       <c r="Q5" s="86" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="R5" s="85" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y5" s="58">
         <v>0.6</v>
@@ -5153,34 +5150,34 @@
         <v>171</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>167</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G6" s="56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H6" s="92" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J6" s="31">
         <v>5</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L6" s="27">
         <v>1</v>
       </c>
       <c r="M6" s="28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N6" s="75" t="s">
         <v>9</v>
@@ -5192,10 +5189,10 @@
         <v>171</v>
       </c>
       <c r="R6" s="85" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y6" s="59" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15" customHeight="1">
@@ -5203,22 +5200,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>167</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>201</v>
+        <v>274</v>
       </c>
       <c r="H7" s="92" t="s">
         <v>202</v>
@@ -5242,7 +5239,7 @@
         <v>6</v>
       </c>
       <c r="Q7" s="86" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="R7" s="85" t="s">
         <v>202</v>
@@ -5256,13 +5253,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>205</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E8" s="44" t="s">
         <v>206</v>
@@ -5295,7 +5292,7 @@
         <v>7</v>
       </c>
       <c r="Q8" s="86" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="R8" s="85" t="s">
         <v>208</v>
@@ -5309,7 +5306,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>212</v>
@@ -5348,7 +5345,7 @@
         <v>8</v>
       </c>
       <c r="Q9" s="86" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="R9" s="85" t="s">
         <v>215</v>
@@ -5362,7 +5359,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>218</v>
@@ -5401,7 +5398,7 @@
         <v>9</v>
       </c>
       <c r="Q10" s="86" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R10" s="85" t="s">
         <v>221</v>
@@ -5724,7 +5721,7 @@
         <v>167</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="F18" s="42" t="s">
         <v>83</v>
@@ -5739,10 +5736,10 @@
         <v>163</v>
       </c>
       <c r="K18" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="L18" s="70" t="s">
         <v>261</v>
-      </c>
-      <c r="L18" s="70" t="s">
-        <v>262</v>
       </c>
       <c r="M18" s="71"/>
       <c r="P18" s="53">
@@ -5766,20 +5763,20 @@
         <v>222</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="H19" s="92" t="s">
         <v>265</v>
-      </c>
-      <c r="H19" s="92" t="s">
-        <v>266</v>
       </c>
       <c r="J19" s="61" t="s">
         <v>9</v>
@@ -5788,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M19" s="83" t="s">
         <v>223</v>
@@ -5800,7 +5797,7 @@
         <v>222</v>
       </c>
       <c r="R19" s="85" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Y19" s="58">
         <v>0.7</v>
@@ -5814,20 +5811,20 @@
         <v>229</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F20" s="42" t="s">
         <v>36</v>
       </c>
       <c r="G20" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="H20" s="92" t="s">
         <v>270</v>
-      </c>
-      <c r="H20" s="92" t="s">
-        <v>271</v>
       </c>
       <c r="J20" s="61" t="s">
         <v>36</v>
@@ -5836,10 +5833,10 @@
         <v>0.8</v>
       </c>
       <c r="L20" s="47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M20" s="83" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P20" s="53">
         <v>19</v>
@@ -5848,7 +5845,7 @@
         <v>229</v>
       </c>
       <c r="R20" s="85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y20" s="58">
         <v>0.3</v>
@@ -5862,17 +5859,17 @@
         <v>229</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>36</v>
       </c>
       <c r="G21" s="56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H21" s="92" t="s">
         <v>202</v>
@@ -5884,10 +5881,10 @@
         <v>0.6</v>
       </c>
       <c r="L21" s="47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M21" s="83" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P21" s="53">
         <v>20</v>
@@ -5910,10 +5907,10 @@
         <v>0.5</v>
       </c>
       <c r="L22" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="M22" s="83" t="s">
         <v>277</v>
-      </c>
-      <c r="M22" s="83" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -5924,7 +5921,7 @@
         <v>0.7</v>
       </c>
       <c r="L23" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M23" s="83" t="s">
         <v>217</v>
@@ -5938,10 +5935,10 @@
         <v>0.8</v>
       </c>
       <c r="L24" s="64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M24" s="84" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -5959,8 +5956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A1F560-DD3A-442A-89D5-F2CF5918DC2E}">
   <dimension ref="A1:W1646"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="A6:H6"/>
+    <sheetView topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="Y1281" sqref="Y1281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5972,73 +5969,73 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="80" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="80" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="C1" s="80" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="D1" s="80" t="s">
         <v>282</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="E1" s="80" t="s">
         <v>283</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="F1" s="80" t="s">
         <v>284</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="G1" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="H1" s="80" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="I1" s="80" t="s">
         <v>287</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="J1" s="80" t="s">
         <v>288</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="K1" s="80" t="s">
         <v>289</v>
       </c>
-      <c r="K1" s="80" t="s">
+      <c r="L1" s="80" t="s">
         <v>290</v>
       </c>
-      <c r="L1" s="80" t="s">
+      <c r="M1" s="80" t="s">
         <v>291</v>
       </c>
-      <c r="M1" s="80" t="s">
+      <c r="N1" s="80" t="s">
         <v>292</v>
       </c>
-      <c r="N1" s="80" t="s">
+      <c r="O1" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="O1" s="80" t="s">
+      <c r="P1" s="80" t="s">
         <v>294</v>
       </c>
-      <c r="P1" s="80" t="s">
+      <c r="Q1" s="80" t="s">
         <v>295</v>
       </c>
-      <c r="Q1" s="80" t="s">
+      <c r="R1" s="80" t="s">
         <v>296</v>
       </c>
-      <c r="R1" s="80" t="s">
+      <c r="S1" s="80" t="s">
         <v>297</v>
       </c>
-      <c r="S1" s="80" t="s">
+      <c r="T1" s="80" t="s">
         <v>298</v>
       </c>
-      <c r="T1" s="80" t="s">
+      <c r="U1" s="80" t="s">
         <v>299</v>
       </c>
-      <c r="U1" s="80" t="s">
+      <c r="V1" s="80" t="s">
         <v>300</v>
       </c>
-      <c r="V1" s="80" t="s">
+      <c r="W1" s="80" t="s">
         <v>301</v>
-      </c>
-      <c r="W1" s="80" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -6049,7 +6046,7 @@
         <v>44928.333333333336</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D2" s="80">
         <v>0</v>
@@ -6120,7 +6117,7 @@
         <v>44928.5</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D3" s="80">
         <v>1</v>
@@ -6191,7 +6188,7 @@
         <v>44928.541666666664</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D4" s="80">
         <v>0</v>
@@ -6262,7 +6259,7 @@
         <v>44928.708333333336</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D5" s="80">
         <v>1</v>
@@ -6333,7 +6330,7 @@
         <v>44928.875</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D6" s="80">
         <v>1</v>
@@ -6404,7 +6401,7 @@
         <v>44929.333333333336</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D7" s="80">
         <v>0</v>
@@ -6475,7 +6472,7 @@
         <v>44929.5</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D8" s="80">
         <v>1</v>
@@ -6546,7 +6543,7 @@
         <v>44929.541666666664</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D9" s="80">
         <v>0</v>
@@ -6617,7 +6614,7 @@
         <v>44929.708333333336</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D10" s="80">
         <v>1</v>
@@ -6688,7 +6685,7 @@
         <v>44930.333333333336</v>
       </c>
       <c r="C11" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D11" s="80">
         <v>0</v>
@@ -6759,7 +6756,7 @@
         <v>44930.5</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D12" s="80">
         <v>1</v>
@@ -6830,7 +6827,7 @@
         <v>44930.541666666664</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D13" s="80">
         <v>0</v>
@@ -6901,7 +6898,7 @@
         <v>44930.708333333336</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D14" s="80">
         <v>1</v>
@@ -6972,7 +6969,7 @@
         <v>44930.875</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D15" s="80">
         <v>0</v>
@@ -7043,7 +7040,7 @@
         <v>44931.333333333336</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D16" s="80">
         <v>0</v>
@@ -7114,7 +7111,7 @@
         <v>44931.5</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D17" s="80">
         <v>1</v>
@@ -7185,7 +7182,7 @@
         <v>44931.541666666664</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D18" s="80">
         <v>0</v>
@@ -7256,7 +7253,7 @@
         <v>44931.708333333336</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D19" s="80">
         <v>1</v>
@@ -7327,7 +7324,7 @@
         <v>44932.333333333336</v>
       </c>
       <c r="C20" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D20" s="80">
         <v>0</v>
@@ -7398,7 +7395,7 @@
         <v>44932.5</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D21" s="80">
         <v>1</v>
@@ -7469,7 +7466,7 @@
         <v>44932.541666666664</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D22" s="80">
         <v>0</v>
@@ -7540,7 +7537,7 @@
         <v>44932.708333333336</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D23" s="80">
         <v>1</v>
@@ -7611,7 +7608,7 @@
         <v>44932.875</v>
       </c>
       <c r="C24" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D24" s="80">
         <v>1</v>
@@ -7682,7 +7679,7 @@
         <v>44933.333333333336</v>
       </c>
       <c r="C25" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D25" s="80">
         <v>0</v>
@@ -7753,7 +7750,7 @@
         <v>44934.333333333336</v>
       </c>
       <c r="C26" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D26" s="80">
         <v>0</v>
@@ -7824,7 +7821,7 @@
         <v>44935.333333333336</v>
       </c>
       <c r="C27" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D27" s="80">
         <v>0</v>
@@ -7895,7 +7892,7 @@
         <v>44935.5</v>
       </c>
       <c r="C28" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D28" s="80">
         <v>1</v>
@@ -7966,7 +7963,7 @@
         <v>44935.541666666664</v>
       </c>
       <c r="C29" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D29" s="80">
         <v>0</v>
@@ -8037,7 +8034,7 @@
         <v>44935.708333333336</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D30" s="80">
         <v>1</v>
@@ -8108,7 +8105,7 @@
         <v>44936.333333333336</v>
       </c>
       <c r="C31" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D31" s="80">
         <v>0</v>
@@ -8179,7 +8176,7 @@
         <v>44936.5</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D32" s="80">
         <v>1</v>
@@ -8250,7 +8247,7 @@
         <v>44936.541666666664</v>
       </c>
       <c r="C33" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D33" s="80">
         <v>0</v>
@@ -8321,7 +8318,7 @@
         <v>44936.708333333336</v>
       </c>
       <c r="C34" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D34" s="80">
         <v>1</v>
@@ -8392,7 +8389,7 @@
         <v>44936.875</v>
       </c>
       <c r="C35" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D35" s="80">
         <v>1</v>
@@ -8463,7 +8460,7 @@
         <v>44937.333333333336</v>
       </c>
       <c r="C36" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D36" s="80">
         <v>0</v>
@@ -8534,7 +8531,7 @@
         <v>44937.5</v>
       </c>
       <c r="C37" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D37" s="80">
         <v>1</v>
@@ -8605,7 +8602,7 @@
         <v>44937.541666666664</v>
       </c>
       <c r="C38" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D38" s="80">
         <v>0</v>
@@ -8676,7 +8673,7 @@
         <v>44937.708333333336</v>
       </c>
       <c r="C39" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D39" s="80">
         <v>1</v>
@@ -8747,7 +8744,7 @@
         <v>44938.333333333336</v>
       </c>
       <c r="C40" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D40" s="80">
         <v>0</v>
@@ -8818,7 +8815,7 @@
         <v>44938.5</v>
       </c>
       <c r="C41" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D41" s="80">
         <v>1</v>
@@ -8889,7 +8886,7 @@
         <v>44938.541666666664</v>
       </c>
       <c r="C42" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D42" s="80">
         <v>0</v>
@@ -8960,7 +8957,7 @@
         <v>44938.708333333336</v>
       </c>
       <c r="C43" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D43" s="80">
         <v>1</v>
@@ -9031,7 +9028,7 @@
         <v>44938.875</v>
       </c>
       <c r="C44" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D44" s="80">
         <v>1</v>
@@ -9102,7 +9099,7 @@
         <v>44939.333333333336</v>
       </c>
       <c r="C45" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D45" s="80">
         <v>0</v>
@@ -9173,7 +9170,7 @@
         <v>44939.5</v>
       </c>
       <c r="C46" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D46" s="80">
         <v>1</v>
@@ -9244,7 +9241,7 @@
         <v>44939.541666666664</v>
       </c>
       <c r="C47" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D47" s="80">
         <v>0</v>
@@ -9315,7 +9312,7 @@
         <v>44939.708333333336</v>
       </c>
       <c r="C48" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D48" s="80">
         <v>1</v>
@@ -9386,7 +9383,7 @@
         <v>44940.333333333336</v>
       </c>
       <c r="C49" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D49" s="80">
         <v>0</v>
@@ -9457,7 +9454,7 @@
         <v>44941.333333333336</v>
       </c>
       <c r="C50" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D50" s="80">
         <v>0</v>
@@ -9528,7 +9525,7 @@
         <v>44942.333333333336</v>
       </c>
       <c r="C51" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D51" s="80">
         <v>0</v>
@@ -9599,7 +9596,7 @@
         <v>44942.5</v>
       </c>
       <c r="C52" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D52" s="80">
         <v>1</v>
@@ -9670,7 +9667,7 @@
         <v>44942.541666666664</v>
       </c>
       <c r="C53" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D53" s="80">
         <v>0</v>
@@ -9741,7 +9738,7 @@
         <v>44942.708333333336</v>
       </c>
       <c r="C54" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D54" s="80">
         <v>0</v>
@@ -9812,7 +9809,7 @@
         <v>44943.333333333336</v>
       </c>
       <c r="C55" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D55" s="80">
         <v>0</v>
@@ -9883,7 +9880,7 @@
         <v>44943.5</v>
       </c>
       <c r="C56" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D56" s="80">
         <v>1</v>
@@ -9954,7 +9951,7 @@
         <v>44943.541666666664</v>
       </c>
       <c r="C57" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D57" s="80">
         <v>0</v>
@@ -10025,7 +10022,7 @@
         <v>44943.708333333336</v>
       </c>
       <c r="C58" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D58" s="80">
         <v>1</v>
@@ -10096,7 +10093,7 @@
         <v>44944.333333333336</v>
       </c>
       <c r="C59" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D59" s="80">
         <v>0</v>
@@ -10167,7 +10164,7 @@
         <v>44944.5</v>
       </c>
       <c r="C60" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D60" s="80">
         <v>1</v>
@@ -10238,7 +10235,7 @@
         <v>44944.541666666664</v>
       </c>
       <c r="C61" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D61" s="80">
         <v>0</v>
@@ -10309,7 +10306,7 @@
         <v>44944.708333333336</v>
       </c>
       <c r="C62" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D62" s="80">
         <v>1</v>
@@ -10380,7 +10377,7 @@
         <v>44945.333333333336</v>
       </c>
       <c r="C63" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D63" s="80">
         <v>0</v>
@@ -10451,7 +10448,7 @@
         <v>44945.5</v>
       </c>
       <c r="C64" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D64" s="80">
         <v>1</v>
@@ -10522,7 +10519,7 @@
         <v>44945.541666666664</v>
       </c>
       <c r="C65" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D65" s="80">
         <v>0</v>
@@ -10593,7 +10590,7 @@
         <v>44945.708333333336</v>
       </c>
       <c r="C66" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D66" s="80">
         <v>1</v>
@@ -10664,7 +10661,7 @@
         <v>44945.875</v>
       </c>
       <c r="C67" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D67" s="80">
         <v>1</v>
@@ -10735,7 +10732,7 @@
         <v>44946.333333333336</v>
       </c>
       <c r="C68" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D68" s="80">
         <v>0</v>
@@ -10806,7 +10803,7 @@
         <v>44946.5</v>
       </c>
       <c r="C69" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D69" s="80">
         <v>1</v>
@@ -10877,7 +10874,7 @@
         <v>44946.541666666664</v>
       </c>
       <c r="C70" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D70" s="80">
         <v>0</v>
@@ -10948,7 +10945,7 @@
         <v>44946.708333333336</v>
       </c>
       <c r="C71" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D71" s="80">
         <v>1</v>
@@ -11019,7 +11016,7 @@
         <v>44946.875</v>
       </c>
       <c r="C72" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D72" s="80">
         <v>1</v>
@@ -11090,7 +11087,7 @@
         <v>44947.333333333336</v>
       </c>
       <c r="C73" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D73" s="80">
         <v>0</v>
@@ -11161,7 +11158,7 @@
         <v>44948.333333333336</v>
       </c>
       <c r="C74" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D74" s="80">
         <v>0</v>
@@ -11232,7 +11229,7 @@
         <v>44949.333333333336</v>
       </c>
       <c r="C75" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D75" s="80">
         <v>0</v>
@@ -11303,7 +11300,7 @@
         <v>44949.5</v>
       </c>
       <c r="C76" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D76" s="80">
         <v>1</v>
@@ -11374,7 +11371,7 @@
         <v>44949.541666666664</v>
       </c>
       <c r="C77" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D77" s="80">
         <v>0</v>
@@ -11445,7 +11442,7 @@
         <v>44949.708333333336</v>
       </c>
       <c r="C78" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D78" s="80">
         <v>1</v>
@@ -11516,7 +11513,7 @@
         <v>44950.333333333336</v>
       </c>
       <c r="C79" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D79" s="80">
         <v>0</v>
@@ -11587,7 +11584,7 @@
         <v>44950.5</v>
       </c>
       <c r="C80" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D80" s="80">
         <v>1</v>
@@ -11658,7 +11655,7 @@
         <v>44950.541666666664</v>
       </c>
       <c r="C81" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D81" s="80">
         <v>0</v>
@@ -11729,7 +11726,7 @@
         <v>44950.708333333336</v>
       </c>
       <c r="C82" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D82" s="80">
         <v>1</v>
@@ -11800,7 +11797,7 @@
         <v>44951.333333333336</v>
       </c>
       <c r="C83" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D83" s="80">
         <v>0</v>
@@ -11871,7 +11868,7 @@
         <v>44951.5</v>
       </c>
       <c r="C84" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D84" s="80">
         <v>1</v>
@@ -11942,7 +11939,7 @@
         <v>44951.541666666664</v>
       </c>
       <c r="C85" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D85" s="80">
         <v>0</v>
@@ -12013,7 +12010,7 @@
         <v>44951.708333333336</v>
       </c>
       <c r="C86" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D86" s="80">
         <v>0</v>
@@ -12084,7 +12081,7 @@
         <v>44951.875</v>
       </c>
       <c r="C87" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D87" s="80">
         <v>1</v>
@@ -12155,7 +12152,7 @@
         <v>44952.333333333336</v>
       </c>
       <c r="C88" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D88" s="80">
         <v>0</v>
@@ -12226,7 +12223,7 @@
         <v>44952.5</v>
       </c>
       <c r="C89" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D89" s="80">
         <v>1</v>
@@ -12297,7 +12294,7 @@
         <v>44952.541666666664</v>
       </c>
       <c r="C90" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D90" s="80">
         <v>0</v>
@@ -12368,7 +12365,7 @@
         <v>44952.708333333336</v>
       </c>
       <c r="C91" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D91" s="80">
         <v>1</v>
@@ -12439,7 +12436,7 @@
         <v>44952.875</v>
       </c>
       <c r="C92" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D92" s="80">
         <v>1</v>
@@ -12510,7 +12507,7 @@
         <v>44953.333333333336</v>
       </c>
       <c r="C93" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D93" s="80">
         <v>0</v>
@@ -12581,7 +12578,7 @@
         <v>44953.5</v>
       </c>
       <c r="C94" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D94" s="80">
         <v>1</v>
@@ -12652,7 +12649,7 @@
         <v>44953.541666666664</v>
       </c>
       <c r="C95" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D95" s="80">
         <v>0</v>
@@ -12723,7 +12720,7 @@
         <v>44953.708333333336</v>
       </c>
       <c r="C96" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D96" s="80">
         <v>1</v>
@@ -12794,7 +12791,7 @@
         <v>44954.333333333336</v>
       </c>
       <c r="C97" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D97" s="80">
         <v>0</v>
@@ -12865,7 +12862,7 @@
         <v>44955.333333333336</v>
       </c>
       <c r="C98" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D98" s="80">
         <v>0</v>
@@ -12936,7 +12933,7 @@
         <v>44956.333333333336</v>
       </c>
       <c r="C99" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D99" s="80">
         <v>0</v>
@@ -13007,7 +13004,7 @@
         <v>44956.5</v>
       </c>
       <c r="C100" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D100" s="80">
         <v>0</v>
@@ -13078,7 +13075,7 @@
         <v>44956.541666666664</v>
       </c>
       <c r="C101" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D101" s="80">
         <v>0</v>
@@ -13149,7 +13146,7 @@
         <v>44956.708333333336</v>
       </c>
       <c r="C102" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D102" s="80">
         <v>1</v>
@@ -13220,7 +13217,7 @@
         <v>44956.875</v>
       </c>
       <c r="C103" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D103" s="80">
         <v>1</v>
@@ -13291,7 +13288,7 @@
         <v>44957.333333333336</v>
       </c>
       <c r="C104" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D104" s="80">
         <v>0</v>
@@ -13362,7 +13359,7 @@
         <v>44957.5</v>
       </c>
       <c r="C105" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D105" s="80">
         <v>1</v>
@@ -13433,7 +13430,7 @@
         <v>44957.541666666664</v>
       </c>
       <c r="C106" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D106" s="80">
         <v>0</v>
@@ -13504,7 +13501,7 @@
         <v>44957.708333333336</v>
       </c>
       <c r="C107" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D107" s="80">
         <v>1</v>
@@ -13575,7 +13572,7 @@
         <v>44957.875</v>
       </c>
       <c r="C108" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D108" s="80">
         <v>1</v>
@@ -13646,7 +13643,7 @@
         <v>44958.333333333336</v>
       </c>
       <c r="C109" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D109" s="80">
         <v>0</v>
@@ -13717,7 +13714,7 @@
         <v>44958.5</v>
       </c>
       <c r="C110" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="80">
         <v>1</v>
@@ -13788,7 +13785,7 @@
         <v>44958.541666666664</v>
       </c>
       <c r="C111" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="80">
         <v>0</v>
@@ -13859,7 +13856,7 @@
         <v>44958.708333333336</v>
       </c>
       <c r="C112" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D112" s="80">
         <v>1</v>
@@ -13930,7 +13927,7 @@
         <v>44958.875</v>
       </c>
       <c r="C113" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D113" s="80">
         <v>1</v>
@@ -14001,7 +13998,7 @@
         <v>44959.333333333336</v>
       </c>
       <c r="C114" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D114" s="80">
         <v>0</v>
@@ -14072,7 +14069,7 @@
         <v>44959.5</v>
       </c>
       <c r="C115" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D115" s="80">
         <v>1</v>
@@ -14143,7 +14140,7 @@
         <v>44959.541666666664</v>
       </c>
       <c r="C116" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D116" s="80">
         <v>0</v>
@@ -14214,7 +14211,7 @@
         <v>44959.708333333336</v>
       </c>
       <c r="C117" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D117" s="80">
         <v>1</v>
@@ -14285,7 +14282,7 @@
         <v>44959.875</v>
       </c>
       <c r="C118" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D118" s="80">
         <v>1</v>
@@ -14356,7 +14353,7 @@
         <v>44960.333333333336</v>
       </c>
       <c r="C119" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D119" s="80">
         <v>0</v>
@@ -14427,7 +14424,7 @@
         <v>44960.5</v>
       </c>
       <c r="C120" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D120" s="80">
         <v>1</v>
@@ -14498,7 +14495,7 @@
         <v>44960.541666666664</v>
       </c>
       <c r="C121" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D121" s="80">
         <v>0</v>
@@ -14569,7 +14566,7 @@
         <v>44960.708333333336</v>
       </c>
       <c r="C122" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D122" s="80">
         <v>1</v>
@@ -14640,7 +14637,7 @@
         <v>44961.333333333336</v>
       </c>
       <c r="C123" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D123" s="80">
         <v>0</v>
@@ -14711,7 +14708,7 @@
         <v>44962.333333333336</v>
       </c>
       <c r="C124" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D124" s="80">
         <v>0</v>
@@ -14782,7 +14779,7 @@
         <v>44963.333333333336</v>
       </c>
       <c r="C125" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D125" s="80">
         <v>0</v>
@@ -14853,7 +14850,7 @@
         <v>44963.5</v>
       </c>
       <c r="C126" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D126" s="80">
         <v>1</v>
@@ -14924,7 +14921,7 @@
         <v>44963.541666666664</v>
       </c>
       <c r="C127" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D127" s="80">
         <v>0</v>
@@ -14995,7 +14992,7 @@
         <v>44963.708333333336</v>
       </c>
       <c r="C128" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D128" s="80">
         <v>0</v>
@@ -15066,7 +15063,7 @@
         <v>44964.333333333336</v>
       </c>
       <c r="C129" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D129" s="80">
         <v>0</v>
@@ -15137,7 +15134,7 @@
         <v>44964.5</v>
       </c>
       <c r="C130" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D130" s="80">
         <v>1</v>
@@ -15208,7 +15205,7 @@
         <v>44964.541666666664</v>
       </c>
       <c r="C131" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D131" s="80">
         <v>0</v>
@@ -15279,7 +15276,7 @@
         <v>44964.708333333336</v>
       </c>
       <c r="C132" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D132" s="80">
         <v>1</v>
@@ -15350,7 +15347,7 @@
         <v>44964.875</v>
       </c>
       <c r="C133" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D133" s="80">
         <v>1</v>
@@ -15421,7 +15418,7 @@
         <v>44965.333333333336</v>
       </c>
       <c r="C134" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D134" s="80">
         <v>0</v>
@@ -15492,7 +15489,7 @@
         <v>44965.5</v>
       </c>
       <c r="C135" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D135" s="80">
         <v>1</v>
@@ -15563,7 +15560,7 @@
         <v>44965.541666666664</v>
       </c>
       <c r="C136" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D136" s="80">
         <v>0</v>
@@ -15634,7 +15631,7 @@
         <v>44965.708333333336</v>
       </c>
       <c r="C137" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D137" s="80">
         <v>1</v>
@@ -15705,7 +15702,7 @@
         <v>44966.333333333336</v>
       </c>
       <c r="C138" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D138" s="80">
         <v>0</v>
@@ -15776,7 +15773,7 @@
         <v>44966.5</v>
       </c>
       <c r="C139" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D139" s="80">
         <v>0</v>
@@ -15847,7 +15844,7 @@
         <v>44966.541666666664</v>
       </c>
       <c r="C140" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D140" s="80">
         <v>0</v>
@@ -15918,7 +15915,7 @@
         <v>44966.708333333336</v>
       </c>
       <c r="C141" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D141" s="80">
         <v>1</v>
@@ -15989,7 +15986,7 @@
         <v>44967.333333333336</v>
       </c>
       <c r="C142" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D142" s="80">
         <v>0</v>
@@ -16060,7 +16057,7 @@
         <v>44967.5</v>
       </c>
       <c r="C143" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D143" s="80">
         <v>1</v>
@@ -16131,7 +16128,7 @@
         <v>44967.541666666664</v>
       </c>
       <c r="C144" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D144" s="80">
         <v>0</v>
@@ -16202,7 +16199,7 @@
         <v>44967.708333333336</v>
       </c>
       <c r="C145" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D145" s="80">
         <v>1</v>
@@ -16273,7 +16270,7 @@
         <v>44967.875</v>
       </c>
       <c r="C146" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D146" s="80">
         <v>1</v>
@@ -16344,7 +16341,7 @@
         <v>44968.333333333336</v>
       </c>
       <c r="C147" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D147" s="80">
         <v>0</v>
@@ -16415,7 +16412,7 @@
         <v>44969.333333333336</v>
       </c>
       <c r="C148" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D148" s="80">
         <v>0</v>
@@ -16486,7 +16483,7 @@
         <v>44970.333333333336</v>
       </c>
       <c r="C149" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D149" s="80">
         <v>0</v>
@@ -16557,7 +16554,7 @@
         <v>44970.5</v>
       </c>
       <c r="C150" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D150" s="80">
         <v>1</v>
@@ -16628,7 +16625,7 @@
         <v>44970.541666666664</v>
       </c>
       <c r="C151" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D151" s="80">
         <v>0</v>
@@ -16699,7 +16696,7 @@
         <v>44970.708333333336</v>
       </c>
       <c r="C152" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D152" s="80">
         <v>1</v>
@@ -16770,7 +16767,7 @@
         <v>44970.875</v>
       </c>
       <c r="C153" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D153" s="80">
         <v>1</v>
@@ -16841,7 +16838,7 @@
         <v>44971.333333333336</v>
       </c>
       <c r="C154" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D154" s="80">
         <v>0</v>
@@ -16912,7 +16909,7 @@
         <v>44971.5</v>
       </c>
       <c r="C155" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D155" s="80">
         <v>1</v>
@@ -16983,7 +16980,7 @@
         <v>44971.541666666664</v>
       </c>
       <c r="C156" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D156" s="80">
         <v>0</v>
@@ -17054,7 +17051,7 @@
         <v>44971.708333333336</v>
       </c>
       <c r="C157" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D157" s="80">
         <v>1</v>
@@ -17125,7 +17122,7 @@
         <v>44971.875</v>
       </c>
       <c r="C158" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D158" s="80">
         <v>0</v>
@@ -17196,7 +17193,7 @@
         <v>44972.333333333336</v>
       </c>
       <c r="C159" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D159" s="80">
         <v>0</v>
@@ -17267,7 +17264,7 @@
         <v>44972.5</v>
       </c>
       <c r="C160" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D160" s="80">
         <v>0</v>
@@ -17338,7 +17335,7 @@
         <v>44972.541666666664</v>
       </c>
       <c r="C161" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D161" s="80">
         <v>0</v>
@@ -17409,7 +17406,7 @@
         <v>44972.708333333336</v>
       </c>
       <c r="C162" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D162" s="80">
         <v>1</v>
@@ -17480,7 +17477,7 @@
         <v>44972.875</v>
       </c>
       <c r="C163" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D163" s="80">
         <v>1</v>
@@ -17551,7 +17548,7 @@
         <v>44973.333333333336</v>
       </c>
       <c r="C164" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D164" s="80">
         <v>0</v>
@@ -17622,7 +17619,7 @@
         <v>44973.5</v>
       </c>
       <c r="C165" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D165" s="80">
         <v>1</v>
@@ -17693,7 +17690,7 @@
         <v>44973.541666666664</v>
       </c>
       <c r="C166" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D166" s="80">
         <v>0</v>
@@ -17764,7 +17761,7 @@
         <v>44973.708333333336</v>
       </c>
       <c r="C167" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D167" s="80">
         <v>0</v>
@@ -17835,7 +17832,7 @@
         <v>44973.875</v>
       </c>
       <c r="C168" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D168" s="80">
         <v>1</v>
@@ -17906,7 +17903,7 @@
         <v>44974.333333333336</v>
       </c>
       <c r="C169" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D169" s="80">
         <v>0</v>
@@ -17977,7 +17974,7 @@
         <v>44974.5</v>
       </c>
       <c r="C170" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D170" s="80">
         <v>1</v>
@@ -18048,7 +18045,7 @@
         <v>44974.541666666664</v>
       </c>
       <c r="C171" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D171" s="80">
         <v>0</v>
@@ -18119,7 +18116,7 @@
         <v>44974.708333333336</v>
       </c>
       <c r="C172" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D172" s="80">
         <v>1</v>
@@ -18190,7 +18187,7 @@
         <v>44975.333333333336</v>
       </c>
       <c r="C173" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D173" s="80">
         <v>0</v>
@@ -18261,7 +18258,7 @@
         <v>44976.333333333336</v>
       </c>
       <c r="C174" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D174" s="80">
         <v>0</v>
@@ -18332,7 +18329,7 @@
         <v>44977.333333333336</v>
       </c>
       <c r="C175" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D175" s="80">
         <v>0</v>
@@ -18403,7 +18400,7 @@
         <v>44977.5</v>
       </c>
       <c r="C176" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D176" s="80">
         <v>1</v>
@@ -18474,7 +18471,7 @@
         <v>44977.541666666664</v>
       </c>
       <c r="C177" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D177" s="80">
         <v>0</v>
@@ -18545,7 +18542,7 @@
         <v>44977.708333333336</v>
       </c>
       <c r="C178" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D178" s="80">
         <v>1</v>
@@ -18616,7 +18613,7 @@
         <v>44978.333333333336</v>
       </c>
       <c r="C179" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D179" s="80">
         <v>0</v>
@@ -18687,7 +18684,7 @@
         <v>44978.5</v>
       </c>
       <c r="C180" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D180" s="80">
         <v>1</v>
@@ -18758,7 +18755,7 @@
         <v>44978.541666666664</v>
       </c>
       <c r="C181" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D181" s="80">
         <v>0</v>
@@ -18829,7 +18826,7 @@
         <v>44978.708333333336</v>
       </c>
       <c r="C182" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D182" s="80">
         <v>1</v>
@@ -18900,7 +18897,7 @@
         <v>44979.333333333336</v>
       </c>
       <c r="C183" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D183" s="80">
         <v>0</v>
@@ -18971,7 +18968,7 @@
         <v>44979.5</v>
       </c>
       <c r="C184" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D184" s="80">
         <v>1</v>
@@ -19042,7 +19039,7 @@
         <v>44979.541666666664</v>
       </c>
       <c r="C185" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D185" s="80">
         <v>0</v>
@@ -19113,7 +19110,7 @@
         <v>44979.708333333336</v>
       </c>
       <c r="C186" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D186" s="80">
         <v>1</v>
@@ -19184,7 +19181,7 @@
         <v>44980.333333333336</v>
       </c>
       <c r="C187" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D187" s="80">
         <v>0</v>
@@ -19255,7 +19252,7 @@
         <v>44980.5</v>
       </c>
       <c r="C188" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D188" s="80">
         <v>1</v>
@@ -19326,7 +19323,7 @@
         <v>44980.541666666664</v>
       </c>
       <c r="C189" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D189" s="80">
         <v>0</v>
@@ -19397,7 +19394,7 @@
         <v>44980.708333333336</v>
       </c>
       <c r="C190" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D190" s="80">
         <v>1</v>
@@ -19468,7 +19465,7 @@
         <v>44981.333333333336</v>
       </c>
       <c r="C191" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D191" s="80">
         <v>0</v>
@@ -19539,7 +19536,7 @@
         <v>44981.5</v>
       </c>
       <c r="C192" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D192" s="80">
         <v>0</v>
@@ -19610,7 +19607,7 @@
         <v>44981.541666666664</v>
       </c>
       <c r="C193" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D193" s="80">
         <v>0</v>
@@ -19681,7 +19678,7 @@
         <v>44981.708333333336</v>
       </c>
       <c r="C194" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D194" s="80">
         <v>1</v>
@@ -19752,7 +19749,7 @@
         <v>44981.875</v>
       </c>
       <c r="C195" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D195" s="80">
         <v>1</v>
@@ -19823,7 +19820,7 @@
         <v>44982.333333333336</v>
       </c>
       <c r="C196" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D196" s="80">
         <v>0</v>
@@ -19894,7 +19891,7 @@
         <v>44983.333333333336</v>
       </c>
       <c r="C197" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D197" s="80">
         <v>0</v>
@@ -19965,7 +19962,7 @@
         <v>44984.333333333336</v>
       </c>
       <c r="C198" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D198" s="80">
         <v>0</v>
@@ -20036,7 +20033,7 @@
         <v>44984.5</v>
       </c>
       <c r="C199" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D199" s="80">
         <v>1</v>
@@ -20107,7 +20104,7 @@
         <v>44984.541666666664</v>
       </c>
       <c r="C200" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D200" s="80">
         <v>0</v>
@@ -20178,7 +20175,7 @@
         <v>44984.708333333336</v>
       </c>
       <c r="C201" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D201" s="80">
         <v>1</v>
@@ -20249,7 +20246,7 @@
         <v>44985.333333333336</v>
       </c>
       <c r="C202" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D202" s="80">
         <v>0</v>
@@ -20320,7 +20317,7 @@
         <v>44985.5</v>
       </c>
       <c r="C203" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D203" s="80">
         <v>0</v>
@@ -20391,7 +20388,7 @@
         <v>44985.541666666664</v>
       </c>
       <c r="C204" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D204" s="80">
         <v>0</v>
@@ -20462,7 +20459,7 @@
         <v>44985.708333333336</v>
       </c>
       <c r="C205" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D205" s="80">
         <v>1</v>
@@ -20533,7 +20530,7 @@
         <v>44985.875</v>
       </c>
       <c r="C206" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D206" s="80">
         <v>1</v>
@@ -20604,7 +20601,7 @@
         <v>44986.333333333336</v>
       </c>
       <c r="C207" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D207" s="80">
         <v>0</v>
@@ -20675,7 +20672,7 @@
         <v>44986.5</v>
       </c>
       <c r="C208" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D208" s="80">
         <v>1</v>
@@ -20746,7 +20743,7 @@
         <v>44986.541666666664</v>
       </c>
       <c r="C209" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D209" s="80">
         <v>0</v>
@@ -20817,7 +20814,7 @@
         <v>44986.708333333336</v>
       </c>
       <c r="C210" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D210" s="80">
         <v>1</v>
@@ -20888,7 +20885,7 @@
         <v>44986.875</v>
       </c>
       <c r="C211" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D211" s="80">
         <v>1</v>
@@ -20959,7 +20956,7 @@
         <v>44987.333333333336</v>
       </c>
       <c r="C212" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D212" s="80">
         <v>0</v>
@@ -21030,7 +21027,7 @@
         <v>44987.5</v>
       </c>
       <c r="C213" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D213" s="80">
         <v>1</v>
@@ -21101,7 +21098,7 @@
         <v>44987.541666666664</v>
       </c>
       <c r="C214" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D214" s="80">
         <v>0</v>
@@ -21172,7 +21169,7 @@
         <v>44987.708333333336</v>
       </c>
       <c r="C215" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D215" s="80">
         <v>1</v>
@@ -21243,7 +21240,7 @@
         <v>44988.333333333336</v>
       </c>
       <c r="C216" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D216" s="80">
         <v>0</v>
@@ -21314,7 +21311,7 @@
         <v>44988.5</v>
       </c>
       <c r="C217" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D217" s="80">
         <v>1</v>
@@ -21385,7 +21382,7 @@
         <v>44988.541666666664</v>
       </c>
       <c r="C218" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D218" s="80">
         <v>0</v>
@@ -21456,7 +21453,7 @@
         <v>44988.708333333336</v>
       </c>
       <c r="C219" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D219" s="80">
         <v>1</v>
@@ -21527,7 +21524,7 @@
         <v>44989.333333333336</v>
       </c>
       <c r="C220" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D220" s="80">
         <v>0</v>
@@ -21598,7 +21595,7 @@
         <v>44990.333333333336</v>
       </c>
       <c r="C221" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D221" s="80">
         <v>0</v>
@@ -21669,7 +21666,7 @@
         <v>44991.333333333336</v>
       </c>
       <c r="C222" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D222" s="80">
         <v>0</v>
@@ -21740,7 +21737,7 @@
         <v>44991.5</v>
       </c>
       <c r="C223" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D223" s="80">
         <v>1</v>
@@ -21811,7 +21808,7 @@
         <v>44991.541666666664</v>
       </c>
       <c r="C224" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D224" s="80">
         <v>0</v>
@@ -21882,7 +21879,7 @@
         <v>44991.708333333336</v>
       </c>
       <c r="C225" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D225" s="80">
         <v>1</v>
@@ -21953,7 +21950,7 @@
         <v>44991.875</v>
       </c>
       <c r="C226" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D226" s="80">
         <v>1</v>
@@ -22024,7 +22021,7 @@
         <v>44992.333333333336</v>
       </c>
       <c r="C227" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D227" s="80">
         <v>0</v>
@@ -22095,7 +22092,7 @@
         <v>44992.5</v>
       </c>
       <c r="C228" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D228" s="80">
         <v>0</v>
@@ -22166,7 +22163,7 @@
         <v>44992.541666666664</v>
       </c>
       <c r="C229" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D229" s="80">
         <v>0</v>
@@ -22237,7 +22234,7 @@
         <v>44992.708333333336</v>
       </c>
       <c r="C230" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D230" s="80">
         <v>0</v>
@@ -22308,7 +22305,7 @@
         <v>44993.333333333336</v>
       </c>
       <c r="C231" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D231" s="80">
         <v>0</v>
@@ -22379,7 +22376,7 @@
         <v>44993.5</v>
       </c>
       <c r="C232" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D232" s="80">
         <v>1</v>
@@ -22450,7 +22447,7 @@
         <v>44993.541666666664</v>
       </c>
       <c r="C233" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D233" s="80">
         <v>0</v>
@@ -22521,7 +22518,7 @@
         <v>44993.708333333336</v>
       </c>
       <c r="C234" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D234" s="80">
         <v>1</v>
@@ -22592,7 +22589,7 @@
         <v>44994.333333333336</v>
       </c>
       <c r="C235" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D235" s="80">
         <v>0</v>
@@ -22663,7 +22660,7 @@
         <v>44994.5</v>
       </c>
       <c r="C236" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D236" s="80">
         <v>1</v>
@@ -22734,7 +22731,7 @@
         <v>44994.541666666664</v>
       </c>
       <c r="C237" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D237" s="80">
         <v>0</v>
@@ -22805,7 +22802,7 @@
         <v>44994.708333333336</v>
       </c>
       <c r="C238" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D238" s="80">
         <v>1</v>
@@ -22876,7 +22873,7 @@
         <v>44994.875</v>
       </c>
       <c r="C239" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D239" s="80">
         <v>1</v>
@@ -22947,7 +22944,7 @@
         <v>44995.333333333336</v>
       </c>
       <c r="C240" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D240" s="80">
         <v>0</v>
@@ -23018,7 +23015,7 @@
         <v>44995.5</v>
       </c>
       <c r="C241" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D241" s="80">
         <v>1</v>
@@ -23089,7 +23086,7 @@
         <v>44995.541666666664</v>
       </c>
       <c r="C242" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D242" s="80">
         <v>0</v>
@@ -23160,7 +23157,7 @@
         <v>44995.708333333336</v>
       </c>
       <c r="C243" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D243" s="80">
         <v>1</v>
@@ -23231,7 +23228,7 @@
         <v>44995.875</v>
       </c>
       <c r="C244" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D244" s="80">
         <v>1</v>
@@ -23302,7 +23299,7 @@
         <v>44996.333333333336</v>
       </c>
       <c r="C245" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D245" s="80">
         <v>0</v>
@@ -23373,7 +23370,7 @@
         <v>44997.333333333336</v>
       </c>
       <c r="C246" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D246" s="80">
         <v>0</v>
@@ -23444,7 +23441,7 @@
         <v>44998.333333333336</v>
       </c>
       <c r="C247" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D247" s="80">
         <v>0</v>
@@ -23515,7 +23512,7 @@
         <v>44998.5</v>
       </c>
       <c r="C248" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D248" s="80">
         <v>1</v>
@@ -23586,7 +23583,7 @@
         <v>44998.541666666664</v>
       </c>
       <c r="C249" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D249" s="80">
         <v>0</v>
@@ -23657,7 +23654,7 @@
         <v>44998.708333333336</v>
       </c>
       <c r="C250" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D250" s="80">
         <v>1</v>
@@ -23728,7 +23725,7 @@
         <v>44999.333333333336</v>
       </c>
       <c r="C251" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D251" s="80">
         <v>0</v>
@@ -23799,7 +23796,7 @@
         <v>44999.5</v>
       </c>
       <c r="C252" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D252" s="80">
         <v>1</v>
@@ -23870,7 +23867,7 @@
         <v>44999.541666666664</v>
       </c>
       <c r="C253" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D253" s="80">
         <v>0</v>
@@ -23941,7 +23938,7 @@
         <v>44999.708333333336</v>
       </c>
       <c r="C254" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D254" s="80">
         <v>1</v>
@@ -24012,7 +24009,7 @@
         <v>44999.875</v>
       </c>
       <c r="C255" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D255" s="80">
         <v>1</v>
@@ -24083,7 +24080,7 @@
         <v>45000.333333333336</v>
       </c>
       <c r="C256" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D256" s="80">
         <v>0</v>
@@ -24154,7 +24151,7 @@
         <v>45000.5</v>
       </c>
       <c r="C257" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D257" s="80">
         <v>1</v>
@@ -24225,7 +24222,7 @@
         <v>45000.541666666664</v>
       </c>
       <c r="C258" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D258" s="80">
         <v>0</v>
@@ -24296,7 +24293,7 @@
         <v>45000.708333333336</v>
       </c>
       <c r="C259" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D259" s="80">
         <v>1</v>
@@ -24367,7 +24364,7 @@
         <v>45001.333333333336</v>
       </c>
       <c r="C260" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D260" s="80">
         <v>0</v>
@@ -24438,7 +24435,7 @@
         <v>45001.5</v>
       </c>
       <c r="C261" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D261" s="80">
         <v>1</v>
@@ -24509,7 +24506,7 @@
         <v>45001.541666666664</v>
       </c>
       <c r="C262" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D262" s="80">
         <v>0</v>
@@ -24580,7 +24577,7 @@
         <v>45001.708333333336</v>
       </c>
       <c r="C263" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D263" s="80">
         <v>1</v>
@@ -24651,7 +24648,7 @@
         <v>45001.875</v>
       </c>
       <c r="C264" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D264" s="80">
         <v>1</v>
@@ -24722,7 +24719,7 @@
         <v>45002.333333333336</v>
       </c>
       <c r="C265" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D265" s="80">
         <v>0</v>
@@ -24793,7 +24790,7 @@
         <v>45002.5</v>
       </c>
       <c r="C266" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D266" s="80">
         <v>0</v>
@@ -24864,7 +24861,7 @@
         <v>45002.541666666664</v>
       </c>
       <c r="C267" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D267" s="80">
         <v>0</v>
@@ -24935,7 +24932,7 @@
         <v>45002.708333333336</v>
       </c>
       <c r="C268" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D268" s="80">
         <v>1</v>
@@ -25006,7 +25003,7 @@
         <v>45003.333333333336</v>
       </c>
       <c r="C269" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D269" s="80">
         <v>0</v>
@@ -25077,7 +25074,7 @@
         <v>45004.333333333336</v>
       </c>
       <c r="C270" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D270" s="80">
         <v>0</v>
@@ -25148,7 +25145,7 @@
         <v>45005.333333333336</v>
       </c>
       <c r="C271" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D271" s="80">
         <v>0</v>
@@ -25219,7 +25216,7 @@
         <v>45005.5</v>
       </c>
       <c r="C272" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D272" s="80">
         <v>1</v>
@@ -25290,7 +25287,7 @@
         <v>45005.541666666664</v>
       </c>
       <c r="C273" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D273" s="80">
         <v>0</v>
@@ -25361,7 +25358,7 @@
         <v>45005.708333333336</v>
       </c>
       <c r="C274" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D274" s="80">
         <v>1</v>
@@ -25432,7 +25429,7 @@
         <v>45006.333333333336</v>
       </c>
       <c r="C275" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D275" s="80">
         <v>0</v>
@@ -25503,7 +25500,7 @@
         <v>45006.5</v>
       </c>
       <c r="C276" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D276" s="80">
         <v>1</v>
@@ -25574,7 +25571,7 @@
         <v>45006.541666666664</v>
       </c>
       <c r="C277" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D277" s="80">
         <v>0</v>
@@ -25645,7 +25642,7 @@
         <v>45006.708333333336</v>
       </c>
       <c r="C278" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D278" s="80">
         <v>1</v>
@@ -25716,7 +25713,7 @@
         <v>45006.875</v>
       </c>
       <c r="C279" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D279" s="80">
         <v>1</v>
@@ -25787,7 +25784,7 @@
         <v>45007.333333333336</v>
       </c>
       <c r="C280" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D280" s="80">
         <v>0</v>
@@ -25858,7 +25855,7 @@
         <v>45007.5</v>
       </c>
       <c r="C281" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D281" s="80">
         <v>1</v>
@@ -25929,7 +25926,7 @@
         <v>45007.541666666664</v>
       </c>
       <c r="C282" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D282" s="80">
         <v>0</v>
@@ -26000,7 +25997,7 @@
         <v>45007.708333333336</v>
       </c>
       <c r="C283" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D283" s="80">
         <v>1</v>
@@ -26071,7 +26068,7 @@
         <v>45007.875</v>
       </c>
       <c r="C284" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D284" s="80">
         <v>1</v>
@@ -26142,7 +26139,7 @@
         <v>45008.333333333336</v>
       </c>
       <c r="C285" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D285" s="80">
         <v>0</v>
@@ -26213,7 +26210,7 @@
         <v>45008.5</v>
       </c>
       <c r="C286" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D286" s="80">
         <v>1</v>
@@ -26284,7 +26281,7 @@
         <v>45008.541666666664</v>
       </c>
       <c r="C287" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D287" s="80">
         <v>0</v>
@@ -26355,7 +26352,7 @@
         <v>45008.708333333336</v>
       </c>
       <c r="C288" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D288" s="80">
         <v>1</v>
@@ -26426,7 +26423,7 @@
         <v>45008.875</v>
       </c>
       <c r="C289" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D289" s="80">
         <v>1</v>
@@ -26497,7 +26494,7 @@
         <v>45009.333333333336</v>
       </c>
       <c r="C290" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D290" s="80">
         <v>0</v>
@@ -26568,7 +26565,7 @@
         <v>45009.5</v>
       </c>
       <c r="C291" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D291" s="80">
         <v>1</v>
@@ -26639,7 +26636,7 @@
         <v>45009.541666666664</v>
       </c>
       <c r="C292" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D292" s="80">
         <v>0</v>
@@ -26710,7 +26707,7 @@
         <v>45009.708333333336</v>
       </c>
       <c r="C293" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D293" s="80">
         <v>1</v>
@@ -26781,7 +26778,7 @@
         <v>45010.333333333336</v>
       </c>
       <c r="C294" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D294" s="80">
         <v>0</v>
@@ -26852,7 +26849,7 @@
         <v>45011.333333333336</v>
       </c>
       <c r="C295" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D295" s="80">
         <v>0</v>
@@ -26923,7 +26920,7 @@
         <v>45012.333333333336</v>
       </c>
       <c r="C296" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D296" s="80">
         <v>0</v>
@@ -26994,7 +26991,7 @@
         <v>45012.5</v>
       </c>
       <c r="C297" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D297" s="80">
         <v>1</v>
@@ -27065,7 +27062,7 @@
         <v>45012.541666666664</v>
       </c>
       <c r="C298" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D298" s="80">
         <v>0</v>
@@ -27136,7 +27133,7 @@
         <v>45012.708333333336</v>
       </c>
       <c r="C299" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D299" s="80">
         <v>1</v>
@@ -27207,7 +27204,7 @@
         <v>45012.875</v>
       </c>
       <c r="C300" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D300" s="80">
         <v>1</v>
@@ -27278,7 +27275,7 @@
         <v>45013.333333333336</v>
       </c>
       <c r="C301" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D301" s="80">
         <v>0</v>
@@ -27349,7 +27346,7 @@
         <v>45013.5</v>
       </c>
       <c r="C302" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D302" s="80">
         <v>1</v>
@@ -27420,7 +27417,7 @@
         <v>45013.541666666664</v>
       </c>
       <c r="C303" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D303" s="80">
         <v>0</v>
@@ -27491,7 +27488,7 @@
         <v>45013.708333333336</v>
       </c>
       <c r="C304" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D304" s="80">
         <v>1</v>
@@ -27562,7 +27559,7 @@
         <v>45014.333333333336</v>
       </c>
       <c r="C305" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D305" s="80">
         <v>0</v>
@@ -27633,7 +27630,7 @@
         <v>45014.5</v>
       </c>
       <c r="C306" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D306" s="80">
         <v>1</v>
@@ -27704,7 +27701,7 @@
         <v>45014.541666666664</v>
       </c>
       <c r="C307" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D307" s="80">
         <v>0</v>
@@ -27775,7 +27772,7 @@
         <v>45014.708333333336</v>
       </c>
       <c r="C308" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D308" s="80">
         <v>1</v>
@@ -27846,7 +27843,7 @@
         <v>45015.333333333336</v>
       </c>
       <c r="C309" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D309" s="80">
         <v>0</v>
@@ -27917,7 +27914,7 @@
         <v>45015.5</v>
       </c>
       <c r="C310" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D310" s="80">
         <v>1</v>
@@ -27988,7 +27985,7 @@
         <v>45015.541666666664</v>
       </c>
       <c r="C311" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D311" s="80">
         <v>0</v>
@@ -28059,7 +28056,7 @@
         <v>45015.708333333336</v>
       </c>
       <c r="C312" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D312" s="80">
         <v>1</v>
@@ -28130,7 +28127,7 @@
         <v>45016.333333333336</v>
       </c>
       <c r="C313" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D313" s="80">
         <v>0</v>
@@ -28201,7 +28198,7 @@
         <v>45016.5</v>
       </c>
       <c r="C314" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D314" s="80">
         <v>1</v>
@@ -28272,7 +28269,7 @@
         <v>45016.541666666664</v>
       </c>
       <c r="C315" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D315" s="80">
         <v>0</v>
@@ -28343,7 +28340,7 @@
         <v>45016.708333333336</v>
       </c>
       <c r="C316" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D316" s="80">
         <v>1</v>
@@ -28414,7 +28411,7 @@
         <v>45017.333333333336</v>
       </c>
       <c r="C317" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D317" s="80">
         <v>0</v>
@@ -28485,7 +28482,7 @@
         <v>45018.333333333336</v>
       </c>
       <c r="C318" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D318" s="80">
         <v>0</v>
@@ -28556,7 +28553,7 @@
         <v>45019.333333333336</v>
       </c>
       <c r="C319" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D319" s="80">
         <v>0</v>
@@ -28627,7 +28624,7 @@
         <v>45019.5</v>
       </c>
       <c r="C320" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D320" s="80">
         <v>1</v>
@@ -28698,7 +28695,7 @@
         <v>45019.541666666664</v>
       </c>
       <c r="C321" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D321" s="80">
         <v>0</v>
@@ -28769,7 +28766,7 @@
         <v>45019.708333333336</v>
       </c>
       <c r="C322" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D322" s="80">
         <v>1</v>
@@ -28840,7 +28837,7 @@
         <v>45020.333333333336</v>
       </c>
       <c r="C323" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D323" s="80">
         <v>0</v>
@@ -28911,7 +28908,7 @@
         <v>45020.5</v>
       </c>
       <c r="C324" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D324" s="80">
         <v>1</v>
@@ -28982,7 +28979,7 @@
         <v>45020.541666666664</v>
       </c>
       <c r="C325" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D325" s="80">
         <v>0</v>
@@ -29053,7 +29050,7 @@
         <v>45020.708333333336</v>
       </c>
       <c r="C326" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D326" s="80">
         <v>1</v>
@@ -29124,7 +29121,7 @@
         <v>45020.875</v>
       </c>
       <c r="C327" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D327" s="80">
         <v>1</v>
@@ -29195,7 +29192,7 @@
         <v>45021.333333333336</v>
       </c>
       <c r="C328" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D328" s="80">
         <v>0</v>
@@ -29266,7 +29263,7 @@
         <v>45021.5</v>
       </c>
       <c r="C329" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D329" s="80">
         <v>1</v>
@@ -29337,7 +29334,7 @@
         <v>45021.541666666664</v>
       </c>
       <c r="C330" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D330" s="80">
         <v>0</v>
@@ -29408,7 +29405,7 @@
         <v>45021.708333333336</v>
       </c>
       <c r="C331" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D331" s="80">
         <v>1</v>
@@ -29479,7 +29476,7 @@
         <v>45022.333333333336</v>
       </c>
       <c r="C332" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D332" s="80">
         <v>0</v>
@@ -29550,7 +29547,7 @@
         <v>45022.5</v>
       </c>
       <c r="C333" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D333" s="80">
         <v>1</v>
@@ -29621,7 +29618,7 @@
         <v>45022.541666666664</v>
       </c>
       <c r="C334" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D334" s="80">
         <v>0</v>
@@ -29692,7 +29689,7 @@
         <v>45022.708333333336</v>
       </c>
       <c r="C335" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D335" s="80">
         <v>1</v>
@@ -29763,7 +29760,7 @@
         <v>45022.875</v>
       </c>
       <c r="C336" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D336" s="80">
         <v>1</v>
@@ -29834,7 +29831,7 @@
         <v>45023.333333333336</v>
       </c>
       <c r="C337" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D337" s="80">
         <v>0</v>
@@ -29905,7 +29902,7 @@
         <v>45023.5</v>
       </c>
       <c r="C338" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D338" s="80">
         <v>1</v>
@@ -29976,7 +29973,7 @@
         <v>45023.541666666664</v>
       </c>
       <c r="C339" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D339" s="80">
         <v>0</v>
@@ -30047,7 +30044,7 @@
         <v>45023.708333333336</v>
       </c>
       <c r="C340" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D340" s="80">
         <v>1</v>
@@ -30118,7 +30115,7 @@
         <v>45024.333333333336</v>
       </c>
       <c r="C341" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D341" s="80">
         <v>0</v>
@@ -30189,7 +30186,7 @@
         <v>45025.333333333336</v>
       </c>
       <c r="C342" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D342" s="80">
         <v>0</v>
@@ -30260,7 +30257,7 @@
         <v>45026.333333333336</v>
       </c>
       <c r="C343" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D343" s="80">
         <v>0</v>
@@ -30331,7 +30328,7 @@
         <v>45026.5</v>
       </c>
       <c r="C344" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D344" s="80">
         <v>1</v>
@@ -30402,7 +30399,7 @@
         <v>45026.541666666664</v>
       </c>
       <c r="C345" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D345" s="80">
         <v>0</v>
@@ -30473,7 +30470,7 @@
         <v>45026.708333333336</v>
       </c>
       <c r="C346" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D346" s="80">
         <v>1</v>
@@ -30544,7 +30541,7 @@
         <v>45027.333333333336</v>
       </c>
       <c r="C347" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D347" s="80">
         <v>0</v>
@@ -30615,7 +30612,7 @@
         <v>45027.5</v>
       </c>
       <c r="C348" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D348" s="80">
         <v>1</v>
@@ -30686,7 +30683,7 @@
         <v>45027.541666666664</v>
       </c>
       <c r="C349" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D349" s="80">
         <v>0</v>
@@ -30757,7 +30754,7 @@
         <v>45027.708333333336</v>
       </c>
       <c r="C350" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D350" s="80">
         <v>1</v>
@@ -30828,7 +30825,7 @@
         <v>45028.333333333336</v>
       </c>
       <c r="C351" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D351" s="80">
         <v>0</v>
@@ -30899,7 +30896,7 @@
         <v>45028.5</v>
       </c>
       <c r="C352" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D352" s="80">
         <v>1</v>
@@ -30970,7 +30967,7 @@
         <v>45028.541666666664</v>
       </c>
       <c r="C353" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D353" s="80">
         <v>0</v>
@@ -31041,7 +31038,7 @@
         <v>45028.708333333336</v>
       </c>
       <c r="C354" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D354" s="80">
         <v>1</v>
@@ -31112,7 +31109,7 @@
         <v>45028.875</v>
       </c>
       <c r="C355" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D355" s="80">
         <v>1</v>
@@ -31183,7 +31180,7 @@
         <v>45029.333333333336</v>
       </c>
       <c r="C356" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D356" s="80">
         <v>0</v>
@@ -31254,7 +31251,7 @@
         <v>45029.5</v>
       </c>
       <c r="C357" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D357" s="80">
         <v>1</v>
@@ -31325,7 +31322,7 @@
         <v>45029.541666666664</v>
       </c>
       <c r="C358" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D358" s="80">
         <v>0</v>
@@ -31396,7 +31393,7 @@
         <v>45029.708333333336</v>
       </c>
       <c r="C359" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D359" s="80">
         <v>1</v>
@@ -31467,7 +31464,7 @@
         <v>45030.333333333336</v>
       </c>
       <c r="C360" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D360" s="80">
         <v>0</v>
@@ -31538,7 +31535,7 @@
         <v>45030.5</v>
       </c>
       <c r="C361" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D361" s="80">
         <v>1</v>
@@ -31609,7 +31606,7 @@
         <v>45030.541666666664</v>
       </c>
       <c r="C362" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D362" s="80">
         <v>0</v>
@@ -31680,7 +31677,7 @@
         <v>45030.708333333336</v>
       </c>
       <c r="C363" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D363" s="80">
         <v>1</v>
@@ -31751,7 +31748,7 @@
         <v>45031.333333333336</v>
       </c>
       <c r="C364" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D364" s="80">
         <v>0</v>
@@ -31822,7 +31819,7 @@
         <v>45032.333333333336</v>
       </c>
       <c r="C365" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D365" s="80">
         <v>0</v>
@@ -31893,7 +31890,7 @@
         <v>45033.333333333336</v>
       </c>
       <c r="C366" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D366" s="80">
         <v>0</v>
@@ -31964,7 +31961,7 @@
         <v>45033.5</v>
       </c>
       <c r="C367" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D367" s="80">
         <v>1</v>
@@ -32035,7 +32032,7 @@
         <v>45033.541666666664</v>
       </c>
       <c r="C368" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D368" s="80">
         <v>0</v>
@@ -32106,7 +32103,7 @@
         <v>45033.708333333336</v>
       </c>
       <c r="C369" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D369" s="80">
         <v>1</v>
@@ -32177,7 +32174,7 @@
         <v>45033.875</v>
       </c>
       <c r="C370" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D370" s="80">
         <v>1</v>
@@ -32248,7 +32245,7 @@
         <v>45034.333333333336</v>
       </c>
       <c r="C371" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D371" s="80">
         <v>0</v>
@@ -32319,7 +32316,7 @@
         <v>45034.5</v>
       </c>
       <c r="C372" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D372" s="80">
         <v>1</v>
@@ -32390,7 +32387,7 @@
         <v>45034.541666666664</v>
       </c>
       <c r="C373" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D373" s="80">
         <v>0</v>
@@ -32461,7 +32458,7 @@
         <v>45034.708333333336</v>
       </c>
       <c r="C374" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D374" s="80">
         <v>1</v>
@@ -32532,7 +32529,7 @@
         <v>45035.333333333336</v>
       </c>
       <c r="C375" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D375" s="80">
         <v>0</v>
@@ -32603,7 +32600,7 @@
         <v>45035.5</v>
       </c>
       <c r="C376" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D376" s="80">
         <v>1</v>
@@ -32674,7 +32671,7 @@
         <v>45035.541666666664</v>
       </c>
       <c r="C377" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D377" s="80">
         <v>0</v>
@@ -32745,7 +32742,7 @@
         <v>45035.708333333336</v>
       </c>
       <c r="C378" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D378" s="80">
         <v>1</v>
@@ -32816,7 +32813,7 @@
         <v>45036.333333333336</v>
       </c>
       <c r="C379" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D379" s="80">
         <v>0</v>
@@ -32887,7 +32884,7 @@
         <v>45036.5</v>
       </c>
       <c r="C380" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D380" s="80">
         <v>1</v>
@@ -32958,7 +32955,7 @@
         <v>45036.541666666664</v>
       </c>
       <c r="C381" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D381" s="80">
         <v>0</v>
@@ -33029,7 +33026,7 @@
         <v>45036.708333333336</v>
       </c>
       <c r="C382" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D382" s="80">
         <v>1</v>
@@ -33100,7 +33097,7 @@
         <v>45036.875</v>
       </c>
       <c r="C383" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D383" s="80">
         <v>0</v>
@@ -33171,7 +33168,7 @@
         <v>45037.333333333336</v>
       </c>
       <c r="C384" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D384" s="80">
         <v>0</v>
@@ -33242,7 +33239,7 @@
         <v>45037.5</v>
       </c>
       <c r="C385" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D385" s="80">
         <v>1</v>
@@ -33313,7 +33310,7 @@
         <v>45037.541666666664</v>
       </c>
       <c r="C386" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D386" s="80">
         <v>0</v>
@@ -33384,7 +33381,7 @@
         <v>45037.708333333336</v>
       </c>
       <c r="C387" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D387" s="80">
         <v>1</v>
@@ -33455,7 +33452,7 @@
         <v>45038.333333333336</v>
       </c>
       <c r="C388" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D388" s="80">
         <v>0</v>
@@ -33526,7 +33523,7 @@
         <v>45039.333333333336</v>
       </c>
       <c r="C389" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D389" s="80">
         <v>0</v>
@@ -33597,7 +33594,7 @@
         <v>45040.333333333336</v>
       </c>
       <c r="C390" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D390" s="80">
         <v>0</v>
@@ -33668,7 +33665,7 @@
         <v>45040.5</v>
       </c>
       <c r="C391" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D391" s="80">
         <v>1</v>
@@ -33739,7 +33736,7 @@
         <v>45040.541666666664</v>
       </c>
       <c r="C392" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D392" s="80">
         <v>0</v>
@@ -33810,7 +33807,7 @@
         <v>45040.708333333336</v>
       </c>
       <c r="C393" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D393" s="80">
         <v>1</v>
@@ -33881,7 +33878,7 @@
         <v>45041.333333333336</v>
       </c>
       <c r="C394" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D394" s="80">
         <v>0</v>
@@ -33952,7 +33949,7 @@
         <v>45041.5</v>
       </c>
       <c r="C395" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D395" s="80">
         <v>1</v>
@@ -34023,7 +34020,7 @@
         <v>45041.541666666664</v>
       </c>
       <c r="C396" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D396" s="80">
         <v>0</v>
@@ -34094,7 +34091,7 @@
         <v>45041.708333333336</v>
       </c>
       <c r="C397" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D397" s="80">
         <v>1</v>
@@ -34165,7 +34162,7 @@
         <v>45042.333333333336</v>
       </c>
       <c r="C398" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D398" s="80">
         <v>0</v>
@@ -34236,7 +34233,7 @@
         <v>45042.5</v>
       </c>
       <c r="C399" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D399" s="80">
         <v>1</v>
@@ -34307,7 +34304,7 @@
         <v>45042.541666666664</v>
       </c>
       <c r="C400" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D400" s="80">
         <v>0</v>
@@ -34378,7 +34375,7 @@
         <v>45042.708333333336</v>
       </c>
       <c r="C401" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D401" s="80">
         <v>1</v>
@@ -34449,7 +34446,7 @@
         <v>45042.875</v>
       </c>
       <c r="C402" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D402" s="80">
         <v>0</v>
@@ -34520,7 +34517,7 @@
         <v>45043.333333333336</v>
       </c>
       <c r="C403" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D403" s="80">
         <v>0</v>
@@ -34591,7 +34588,7 @@
         <v>45043.5</v>
       </c>
       <c r="C404" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D404" s="80">
         <v>1</v>
@@ -34662,7 +34659,7 @@
         <v>45043.541666666664</v>
       </c>
       <c r="C405" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D405" s="80">
         <v>0</v>
@@ -34733,7 +34730,7 @@
         <v>45043.708333333336</v>
       </c>
       <c r="C406" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D406" s="80">
         <v>1</v>
@@ -34804,7 +34801,7 @@
         <v>45043.875</v>
       </c>
       <c r="C407" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D407" s="80">
         <v>1</v>
@@ -34875,7 +34872,7 @@
         <v>45044.333333333336</v>
       </c>
       <c r="C408" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D408" s="80">
         <v>0</v>
@@ -34946,7 +34943,7 @@
         <v>45044.5</v>
       </c>
       <c r="C409" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D409" s="80">
         <v>1</v>
@@ -35017,7 +35014,7 @@
         <v>45044.541666666664</v>
       </c>
       <c r="C410" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D410" s="80">
         <v>0</v>
@@ -35088,7 +35085,7 @@
         <v>45044.708333333336</v>
       </c>
       <c r="C411" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D411" s="80">
         <v>0</v>
@@ -35159,7 +35156,7 @@
         <v>45044.875</v>
       </c>
       <c r="C412" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D412" s="80">
         <v>1</v>
@@ -35230,7 +35227,7 @@
         <v>45045.333333333336</v>
       </c>
       <c r="C413" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D413" s="80">
         <v>0</v>
@@ -35301,7 +35298,7 @@
         <v>45046.333333333336</v>
       </c>
       <c r="C414" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D414" s="80">
         <v>0</v>
@@ -35372,7 +35369,7 @@
         <v>45047.333333333336</v>
       </c>
       <c r="C415" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D415" s="80">
         <v>0</v>
@@ -35443,7 +35440,7 @@
         <v>45047.5</v>
       </c>
       <c r="C416" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D416" s="80">
         <v>1</v>
@@ -35514,7 +35511,7 @@
         <v>45047.541666666664</v>
       </c>
       <c r="C417" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D417" s="80">
         <v>0</v>
@@ -35585,7 +35582,7 @@
         <v>45047.708333333336</v>
       </c>
       <c r="C418" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D418" s="80">
         <v>1</v>
@@ -35656,7 +35653,7 @@
         <v>45048.333333333336</v>
       </c>
       <c r="C419" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D419" s="80">
         <v>0</v>
@@ -35727,7 +35724,7 @@
         <v>45048.5</v>
       </c>
       <c r="C420" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D420" s="80">
         <v>0</v>
@@ -35798,7 +35795,7 @@
         <v>45048.541666666664</v>
       </c>
       <c r="C421" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D421" s="80">
         <v>0</v>
@@ -35869,7 +35866,7 @@
         <v>45048.708333333336</v>
       </c>
       <c r="C422" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D422" s="80">
         <v>1</v>
@@ -35940,7 +35937,7 @@
         <v>45049.333333333336</v>
       </c>
       <c r="C423" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D423" s="80">
         <v>0</v>
@@ -36011,7 +36008,7 @@
         <v>45049.5</v>
       </c>
       <c r="C424" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D424" s="80">
         <v>1</v>
@@ -36082,7 +36079,7 @@
         <v>45049.541666666664</v>
       </c>
       <c r="C425" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D425" s="80">
         <v>0</v>
@@ -36153,7 +36150,7 @@
         <v>45049.708333333336</v>
       </c>
       <c r="C426" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D426" s="80">
         <v>1</v>
@@ -36224,7 +36221,7 @@
         <v>45050.333333333336</v>
       </c>
       <c r="C427" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D427" s="80">
         <v>0</v>
@@ -36295,7 +36292,7 @@
         <v>45050.5</v>
       </c>
       <c r="C428" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D428" s="80">
         <v>1</v>
@@ -36366,7 +36363,7 @@
         <v>45050.541666666664</v>
       </c>
       <c r="C429" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D429" s="80">
         <v>0</v>
@@ -36437,7 +36434,7 @@
         <v>45050.708333333336</v>
       </c>
       <c r="C430" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D430" s="80">
         <v>1</v>
@@ -36508,7 +36505,7 @@
         <v>45050.875</v>
       </c>
       <c r="C431" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D431" s="80">
         <v>0</v>
@@ -36579,7 +36576,7 @@
         <v>45051.333333333336</v>
       </c>
       <c r="C432" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D432" s="80">
         <v>0</v>
@@ -36650,7 +36647,7 @@
         <v>45051.5</v>
       </c>
       <c r="C433" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D433" s="80">
         <v>1</v>
@@ -36721,7 +36718,7 @@
         <v>45051.541666666664</v>
       </c>
       <c r="C434" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D434" s="80">
         <v>0</v>
@@ -36792,7 +36789,7 @@
         <v>45051.708333333336</v>
       </c>
       <c r="C435" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D435" s="80">
         <v>1</v>
@@ -36863,7 +36860,7 @@
         <v>45052.333333333336</v>
       </c>
       <c r="C436" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D436" s="80">
         <v>0</v>
@@ -36934,7 +36931,7 @@
         <v>45053.333333333336</v>
       </c>
       <c r="C437" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D437" s="80">
         <v>0</v>
@@ -37005,7 +37002,7 @@
         <v>45054.333333333336</v>
       </c>
       <c r="C438" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D438" s="80">
         <v>0</v>
@@ -37076,7 +37073,7 @@
         <v>45054.5</v>
       </c>
       <c r="C439" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D439" s="80">
         <v>1</v>
@@ -37147,7 +37144,7 @@
         <v>45054.541666666664</v>
       </c>
       <c r="C440" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D440" s="80">
         <v>0</v>
@@ -37218,7 +37215,7 @@
         <v>45054.708333333336</v>
       </c>
       <c r="C441" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D441" s="80">
         <v>1</v>
@@ -37289,7 +37286,7 @@
         <v>45055.333333333336</v>
       </c>
       <c r="C442" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D442" s="80">
         <v>0</v>
@@ -37360,7 +37357,7 @@
         <v>45055.5</v>
       </c>
       <c r="C443" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D443" s="80">
         <v>1</v>
@@ -37431,7 +37428,7 @@
         <v>45055.541666666664</v>
       </c>
       <c r="C444" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D444" s="80">
         <v>0</v>
@@ -37502,7 +37499,7 @@
         <v>45055.708333333336</v>
       </c>
       <c r="C445" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D445" s="80">
         <v>1</v>
@@ -37573,7 +37570,7 @@
         <v>45055.875</v>
       </c>
       <c r="C446" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D446" s="80">
         <v>1</v>
@@ -37644,7 +37641,7 @@
         <v>45056.333333333336</v>
       </c>
       <c r="C447" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D447" s="80">
         <v>0</v>
@@ -37715,7 +37712,7 @@
         <v>45056.5</v>
       </c>
       <c r="C448" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D448" s="80">
         <v>1</v>
@@ -37786,7 +37783,7 @@
         <v>45056.541666666664</v>
       </c>
       <c r="C449" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D449" s="80">
         <v>0</v>
@@ -37857,7 +37854,7 @@
         <v>45056.708333333336</v>
       </c>
       <c r="C450" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D450" s="80">
         <v>1</v>
@@ -37928,7 +37925,7 @@
         <v>45056.875</v>
       </c>
       <c r="C451" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D451" s="80">
         <v>1</v>
@@ -37999,7 +37996,7 @@
         <v>45057.333333333336</v>
       </c>
       <c r="C452" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D452" s="80">
         <v>0</v>
@@ -38070,7 +38067,7 @@
         <v>45057.5</v>
       </c>
       <c r="C453" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D453" s="80">
         <v>1</v>
@@ -38141,7 +38138,7 @@
         <v>45057.541666666664</v>
       </c>
       <c r="C454" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D454" s="80">
         <v>0</v>
@@ -38212,7 +38209,7 @@
         <v>45057.708333333336</v>
       </c>
       <c r="C455" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D455" s="80">
         <v>1</v>
@@ -38283,7 +38280,7 @@
         <v>45057.875</v>
       </c>
       <c r="C456" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D456" s="80">
         <v>1</v>
@@ -38354,7 +38351,7 @@
         <v>45058.333333333336</v>
       </c>
       <c r="C457" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D457" s="80">
         <v>0</v>
@@ -38425,7 +38422,7 @@
         <v>45058.5</v>
       </c>
       <c r="C458" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D458" s="80">
         <v>1</v>
@@ -38496,7 +38493,7 @@
         <v>45058.541666666664</v>
       </c>
       <c r="C459" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D459" s="80">
         <v>0</v>
@@ -38567,7 +38564,7 @@
         <v>45058.708333333336</v>
       </c>
       <c r="C460" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D460" s="80">
         <v>1</v>
@@ -38638,7 +38635,7 @@
         <v>45058.875</v>
       </c>
       <c r="C461" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D461" s="80">
         <v>1</v>
@@ -38709,7 +38706,7 @@
         <v>45059.333333333336</v>
       </c>
       <c r="C462" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D462" s="80">
         <v>0</v>
@@ -38780,7 +38777,7 @@
         <v>45060.333333333336</v>
       </c>
       <c r="C463" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D463" s="80">
         <v>0</v>
@@ -38851,7 +38848,7 @@
         <v>45061.333333333336</v>
       </c>
       <c r="C464" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D464" s="80">
         <v>0</v>
@@ -38922,7 +38919,7 @@
         <v>45061.5</v>
       </c>
       <c r="C465" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D465" s="80">
         <v>1</v>
@@ -38993,7 +38990,7 @@
         <v>45061.541666666664</v>
       </c>
       <c r="C466" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D466" s="80">
         <v>0</v>
@@ -39064,7 +39061,7 @@
         <v>45061.708333333336</v>
       </c>
       <c r="C467" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D467" s="80">
         <v>1</v>
@@ -39135,7 +39132,7 @@
         <v>45061.875</v>
       </c>
       <c r="C468" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D468" s="80">
         <v>1</v>
@@ -39206,7 +39203,7 @@
         <v>45062.333333333336</v>
       </c>
       <c r="C469" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D469" s="80">
         <v>0</v>
@@ -39277,7 +39274,7 @@
         <v>45062.5</v>
       </c>
       <c r="C470" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D470" s="80">
         <v>1</v>
@@ -39348,7 +39345,7 @@
         <v>45062.541666666664</v>
       </c>
       <c r="C471" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D471" s="80">
         <v>0</v>
@@ -39419,7 +39416,7 @@
         <v>45062.708333333336</v>
       </c>
       <c r="C472" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D472" s="80">
         <v>1</v>
@@ -39490,7 +39487,7 @@
         <v>45062.875</v>
       </c>
       <c r="C473" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D473" s="80">
         <v>1</v>
@@ -39561,7 +39558,7 @@
         <v>45063.333333333336</v>
       </c>
       <c r="C474" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D474" s="80">
         <v>0</v>
@@ -39632,7 +39629,7 @@
         <v>45063.5</v>
       </c>
       <c r="C475" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D475" s="80">
         <v>1</v>
@@ -39703,7 +39700,7 @@
         <v>45063.541666666664</v>
       </c>
       <c r="C476" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D476" s="80">
         <v>0</v>
@@ -39774,7 +39771,7 @@
         <v>45063.708333333336</v>
       </c>
       <c r="C477" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D477" s="80">
         <v>1</v>
@@ -39845,7 +39842,7 @@
         <v>45064.333333333336</v>
       </c>
       <c r="C478" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D478" s="80">
         <v>0</v>
@@ -39916,7 +39913,7 @@
         <v>45064.5</v>
       </c>
       <c r="C479" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D479" s="80">
         <v>1</v>
@@ -39987,7 +39984,7 @@
         <v>45064.541666666664</v>
       </c>
       <c r="C480" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D480" s="80">
         <v>0</v>
@@ -40058,7 +40055,7 @@
         <v>45064.708333333336</v>
       </c>
       <c r="C481" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D481" s="80">
         <v>1</v>
@@ -40129,7 +40126,7 @@
         <v>45064.875</v>
       </c>
       <c r="C482" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D482" s="80">
         <v>1</v>
@@ -40200,7 +40197,7 @@
         <v>45065.333333333336</v>
       </c>
       <c r="C483" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D483" s="80">
         <v>0</v>
@@ -40271,7 +40268,7 @@
         <v>45065.5</v>
       </c>
       <c r="C484" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D484" s="80">
         <v>1</v>
@@ -40342,7 +40339,7 @@
         <v>45065.541666666664</v>
       </c>
       <c r="C485" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D485" s="80">
         <v>0</v>
@@ -40413,7 +40410,7 @@
         <v>45065.708333333336</v>
       </c>
       <c r="C486" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D486" s="80">
         <v>1</v>
@@ -40484,7 +40481,7 @@
         <v>45066.333333333336</v>
       </c>
       <c r="C487" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D487" s="80">
         <v>0</v>
@@ -40555,7 +40552,7 @@
         <v>45067.333333333336</v>
       </c>
       <c r="C488" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D488" s="80">
         <v>0</v>
@@ -40626,7 +40623,7 @@
         <v>45068.333333333336</v>
       </c>
       <c r="C489" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D489" s="80">
         <v>0</v>
@@ -40697,7 +40694,7 @@
         <v>45068.5</v>
       </c>
       <c r="C490" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D490" s="80">
         <v>1</v>
@@ -40768,7 +40765,7 @@
         <v>45068.541666666664</v>
       </c>
       <c r="C491" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D491" s="80">
         <v>0</v>
@@ -40839,7 +40836,7 @@
         <v>45068.708333333336</v>
       </c>
       <c r="C492" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D492" s="80">
         <v>1</v>
@@ -40910,7 +40907,7 @@
         <v>45068.875</v>
       </c>
       <c r="C493" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D493" s="80">
         <v>1</v>
@@ -40981,7 +40978,7 @@
         <v>45069.333333333336</v>
       </c>
       <c r="C494" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D494" s="80">
         <v>0</v>
@@ -41052,7 +41049,7 @@
         <v>45069.5</v>
       </c>
       <c r="C495" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D495" s="80">
         <v>1</v>
@@ -41123,7 +41120,7 @@
         <v>45069.541666666664</v>
       </c>
       <c r="C496" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D496" s="80">
         <v>0</v>
@@ -41194,7 +41191,7 @@
         <v>45069.708333333336</v>
       </c>
       <c r="C497" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D497" s="80">
         <v>1</v>
@@ -41265,7 +41262,7 @@
         <v>45069.875</v>
       </c>
       <c r="C498" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D498" s="80">
         <v>1</v>
@@ -41336,7 +41333,7 @@
         <v>45070.333333333336</v>
       </c>
       <c r="C499" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D499" s="80">
         <v>0</v>
@@ -41407,7 +41404,7 @@
         <v>45070.5</v>
       </c>
       <c r="C500" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D500" s="80">
         <v>1</v>
@@ -41478,7 +41475,7 @@
         <v>45070.541666666664</v>
       </c>
       <c r="C501" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D501" s="80">
         <v>0</v>
@@ -41549,7 +41546,7 @@
         <v>45070.708333333336</v>
       </c>
       <c r="C502" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D502" s="80">
         <v>0</v>
@@ -41620,7 +41617,7 @@
         <v>45071.333333333336</v>
       </c>
       <c r="C503" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D503" s="80">
         <v>0</v>
@@ -41691,7 +41688,7 @@
         <v>45071.5</v>
       </c>
       <c r="C504" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D504" s="80">
         <v>1</v>
@@ -41762,7 +41759,7 @@
         <v>45071.541666666664</v>
       </c>
       <c r="C505" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D505" s="80">
         <v>0</v>
@@ -41833,7 +41830,7 @@
         <v>45071.708333333336</v>
       </c>
       <c r="C506" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D506" s="80">
         <v>1</v>
@@ -41904,7 +41901,7 @@
         <v>45072.333333333336</v>
       </c>
       <c r="C507" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D507" s="80">
         <v>0</v>
@@ -41975,7 +41972,7 @@
         <v>45072.5</v>
       </c>
       <c r="C508" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D508" s="80">
         <v>1</v>
@@ -42046,7 +42043,7 @@
         <v>45072.541666666664</v>
       </c>
       <c r="C509" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D509" s="80">
         <v>0</v>
@@ -42117,7 +42114,7 @@
         <v>45072.708333333336</v>
       </c>
       <c r="C510" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D510" s="80">
         <v>1</v>
@@ -42188,7 +42185,7 @@
         <v>45072.875</v>
       </c>
       <c r="C511" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D511" s="80">
         <v>1</v>
@@ -42259,7 +42256,7 @@
         <v>45073.333333333336</v>
       </c>
       <c r="C512" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D512" s="80">
         <v>0</v>
@@ -42330,7 +42327,7 @@
         <v>45074.333333333336</v>
       </c>
       <c r="C513" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D513" s="80">
         <v>0</v>
@@ -42401,7 +42398,7 @@
         <v>45075.333333333336</v>
       </c>
       <c r="C514" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D514" s="80">
         <v>0</v>
@@ -42472,7 +42469,7 @@
         <v>45075.5</v>
       </c>
       <c r="C515" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D515" s="80">
         <v>1</v>
@@ -42543,7 +42540,7 @@
         <v>45075.541666666664</v>
       </c>
       <c r="C516" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D516" s="80">
         <v>0</v>
@@ -42614,7 +42611,7 @@
         <v>45075.708333333336</v>
       </c>
       <c r="C517" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D517" s="80">
         <v>1</v>
@@ -42685,7 +42682,7 @@
         <v>45076.333333333336</v>
       </c>
       <c r="C518" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D518" s="80">
         <v>0</v>
@@ -42756,7 +42753,7 @@
         <v>45076.5</v>
       </c>
       <c r="C519" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D519" s="80">
         <v>1</v>
@@ -42827,7 +42824,7 @@
         <v>45076.541666666664</v>
       </c>
       <c r="C520" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D520" s="80">
         <v>0</v>
@@ -42898,7 +42895,7 @@
         <v>45076.708333333336</v>
       </c>
       <c r="C521" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D521" s="80">
         <v>0</v>
@@ -42969,7 +42966,7 @@
         <v>45076.875</v>
       </c>
       <c r="C522" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D522" s="80">
         <v>1</v>
@@ -43040,7 +43037,7 @@
         <v>45077.333333333336</v>
       </c>
       <c r="C523" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D523" s="80">
         <v>0</v>
@@ -43111,7 +43108,7 @@
         <v>45077.5</v>
       </c>
       <c r="C524" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D524" s="80">
         <v>1</v>
@@ -43182,7 +43179,7 @@
         <v>45077.541666666664</v>
       </c>
       <c r="C525" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D525" s="80">
         <v>0</v>
@@ -43253,7 +43250,7 @@
         <v>45077.708333333336</v>
       </c>
       <c r="C526" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D526" s="80">
         <v>1</v>
@@ -43324,7 +43321,7 @@
         <v>45078.333333333336</v>
       </c>
       <c r="C527" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D527" s="80">
         <v>0</v>
@@ -43395,7 +43392,7 @@
         <v>45078.5</v>
       </c>
       <c r="C528" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D528" s="80">
         <v>1</v>
@@ -43466,7 +43463,7 @@
         <v>45078.541666666664</v>
       </c>
       <c r="C529" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D529" s="80">
         <v>0</v>
@@ -43537,7 +43534,7 @@
         <v>45078.708333333336</v>
       </c>
       <c r="C530" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D530" s="80">
         <v>0</v>
@@ -43608,7 +43605,7 @@
         <v>45078.875</v>
       </c>
       <c r="C531" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D531" s="80">
         <v>1</v>
@@ -43679,7 +43676,7 @@
         <v>45079.333333333336</v>
       </c>
       <c r="C532" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D532" s="80">
         <v>0</v>
@@ -43750,7 +43747,7 @@
         <v>45079.5</v>
       </c>
       <c r="C533" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D533" s="80">
         <v>1</v>
@@ -43821,7 +43818,7 @@
         <v>45079.541666666664</v>
       </c>
       <c r="C534" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D534" s="80">
         <v>0</v>
@@ -43892,7 +43889,7 @@
         <v>45079.708333333336</v>
       </c>
       <c r="C535" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D535" s="80">
         <v>0</v>
@@ -43963,7 +43960,7 @@
         <v>45079.875</v>
       </c>
       <c r="C536" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D536" s="80">
         <v>1</v>
@@ -44034,7 +44031,7 @@
         <v>45080.333333333336</v>
       </c>
       <c r="C537" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D537" s="80">
         <v>0</v>
@@ -44105,7 +44102,7 @@
         <v>45081.333333333336</v>
       </c>
       <c r="C538" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D538" s="80">
         <v>0</v>
@@ -44176,7 +44173,7 @@
         <v>45082.333333333336</v>
       </c>
       <c r="C539" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D539" s="80">
         <v>0</v>
@@ -44247,7 +44244,7 @@
         <v>45082.5</v>
       </c>
       <c r="C540" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D540" s="80">
         <v>1</v>
@@ -44318,7 +44315,7 @@
         <v>45082.541666666664</v>
       </c>
       <c r="C541" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D541" s="80">
         <v>0</v>
@@ -44389,7 +44386,7 @@
         <v>45082.708333333336</v>
       </c>
       <c r="C542" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D542" s="80">
         <v>1</v>
@@ -44460,7 +44457,7 @@
         <v>45082.875</v>
       </c>
       <c r="C543" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D543" s="80">
         <v>1</v>
@@ -44531,7 +44528,7 @@
         <v>45083.333333333336</v>
       </c>
       <c r="C544" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D544" s="80">
         <v>0</v>
@@ -44602,7 +44599,7 @@
         <v>45083.5</v>
       </c>
       <c r="C545" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D545" s="80">
         <v>1</v>
@@ -44673,7 +44670,7 @@
         <v>45083.541666666664</v>
       </c>
       <c r="C546" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D546" s="80">
         <v>0</v>
@@ -44744,7 +44741,7 @@
         <v>45083.708333333336</v>
       </c>
       <c r="C547" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D547" s="80">
         <v>1</v>
@@ -44815,7 +44812,7 @@
         <v>45084.333333333336</v>
       </c>
       <c r="C548" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D548" s="80">
         <v>0</v>
@@ -44886,7 +44883,7 @@
         <v>45084.5</v>
       </c>
       <c r="C549" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D549" s="80">
         <v>1</v>
@@ -44957,7 +44954,7 @@
         <v>45084.541666666664</v>
       </c>
       <c r="C550" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D550" s="80">
         <v>0</v>
@@ -45028,7 +45025,7 @@
         <v>45084.708333333336</v>
       </c>
       <c r="C551" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D551" s="80">
         <v>1</v>
@@ -45099,7 +45096,7 @@
         <v>45084.875</v>
       </c>
       <c r="C552" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D552" s="80">
         <v>0</v>
@@ -45170,7 +45167,7 @@
         <v>45085.333333333336</v>
       </c>
       <c r="C553" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D553" s="80">
         <v>0</v>
@@ -45241,7 +45238,7 @@
         <v>45085.5</v>
       </c>
       <c r="C554" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D554" s="80">
         <v>1</v>
@@ -45312,7 +45309,7 @@
         <v>45085.541666666664</v>
       </c>
       <c r="C555" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D555" s="80">
         <v>0</v>
@@ -45383,7 +45380,7 @@
         <v>45085.708333333336</v>
       </c>
       <c r="C556" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D556" s="80">
         <v>1</v>
@@ -45454,7 +45451,7 @@
         <v>45085.875</v>
       </c>
       <c r="C557" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D557" s="80">
         <v>1</v>
@@ -45525,7 +45522,7 @@
         <v>45086.333333333336</v>
       </c>
       <c r="C558" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D558" s="80">
         <v>0</v>
@@ -45596,7 +45593,7 @@
         <v>45086.5</v>
       </c>
       <c r="C559" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D559" s="80">
         <v>1</v>
@@ -45667,7 +45664,7 @@
         <v>45086.541666666664</v>
       </c>
       <c r="C560" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D560" s="80">
         <v>0</v>
@@ -45738,7 +45735,7 @@
         <v>45086.708333333336</v>
       </c>
       <c r="C561" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D561" s="80">
         <v>1</v>
@@ -45809,7 +45806,7 @@
         <v>45087.333333333336</v>
       </c>
       <c r="C562" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D562" s="80">
         <v>0</v>
@@ -45880,7 +45877,7 @@
         <v>45088.333333333336</v>
       </c>
       <c r="C563" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D563" s="80">
         <v>0</v>
@@ -45951,7 +45948,7 @@
         <v>45089.333333333336</v>
       </c>
       <c r="C564" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D564" s="80">
         <v>0</v>
@@ -46022,7 +46019,7 @@
         <v>45089.5</v>
       </c>
       <c r="C565" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D565" s="80">
         <v>1</v>
@@ -46093,7 +46090,7 @@
         <v>45089.541666666664</v>
       </c>
       <c r="C566" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D566" s="80">
         <v>0</v>
@@ -46164,7 +46161,7 @@
         <v>45089.708333333336</v>
       </c>
       <c r="C567" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D567" s="80">
         <v>1</v>
@@ -46235,7 +46232,7 @@
         <v>45090.333333333336</v>
       </c>
       <c r="C568" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D568" s="80">
         <v>0</v>
@@ -46306,7 +46303,7 @@
         <v>45090.5</v>
       </c>
       <c r="C569" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D569" s="80">
         <v>0</v>
@@ -46377,7 +46374,7 @@
         <v>45090.541666666664</v>
       </c>
       <c r="C570" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D570" s="80">
         <v>0</v>
@@ -46448,7 +46445,7 @@
         <v>45090.708333333336</v>
       </c>
       <c r="C571" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D571" s="80">
         <v>1</v>
@@ -46519,7 +46516,7 @@
         <v>45091.333333333336</v>
       </c>
       <c r="C572" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D572" s="80">
         <v>0</v>
@@ -46590,7 +46587,7 @@
         <v>45091.5</v>
       </c>
       <c r="C573" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D573" s="80">
         <v>1</v>
@@ -46661,7 +46658,7 @@
         <v>45091.541666666664</v>
       </c>
       <c r="C574" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D574" s="80">
         <v>0</v>
@@ -46732,7 +46729,7 @@
         <v>45091.708333333336</v>
       </c>
       <c r="C575" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D575" s="80">
         <v>1</v>
@@ -46803,7 +46800,7 @@
         <v>45092.333333333336</v>
       </c>
       <c r="C576" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D576" s="80">
         <v>0</v>
@@ -46874,7 +46871,7 @@
         <v>45092.5</v>
       </c>
       <c r="C577" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D577" s="80">
         <v>0</v>
@@ -46945,7 +46942,7 @@
         <v>45092.541666666664</v>
       </c>
       <c r="C578" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D578" s="80">
         <v>0</v>
@@ -47016,7 +47013,7 @@
         <v>45092.708333333336</v>
       </c>
       <c r="C579" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D579" s="80">
         <v>1</v>
@@ -47087,7 +47084,7 @@
         <v>45093.333333333336</v>
       </c>
       <c r="C580" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D580" s="80">
         <v>0</v>
@@ -47158,7 +47155,7 @@
         <v>45093.5</v>
       </c>
       <c r="C581" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D581" s="80">
         <v>1</v>
@@ -47229,7 +47226,7 @@
         <v>45093.541666666664</v>
       </c>
       <c r="C582" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D582" s="80">
         <v>0</v>
@@ -47300,7 +47297,7 @@
         <v>45093.708333333336</v>
       </c>
       <c r="C583" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D583" s="80">
         <v>1</v>
@@ -47371,7 +47368,7 @@
         <v>45093.875</v>
       </c>
       <c r="C584" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D584" s="80">
         <v>1</v>
@@ -47442,7 +47439,7 @@
         <v>45094.333333333336</v>
       </c>
       <c r="C585" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D585" s="80">
         <v>0</v>
@@ -47513,7 +47510,7 @@
         <v>45095.333333333336</v>
       </c>
       <c r="C586" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D586" s="80">
         <v>0</v>
@@ -47584,7 +47581,7 @@
         <v>45096.333333333336</v>
       </c>
       <c r="C587" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D587" s="80">
         <v>0</v>
@@ -47655,7 +47652,7 @@
         <v>45096.5</v>
       </c>
       <c r="C588" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D588" s="80">
         <v>0</v>
@@ -47726,7 +47723,7 @@
         <v>45096.541666666664</v>
       </c>
       <c r="C589" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D589" s="80">
         <v>0</v>
@@ -47797,7 +47794,7 @@
         <v>45096.708333333336</v>
       </c>
       <c r="C590" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D590" s="80">
         <v>1</v>
@@ -47868,7 +47865,7 @@
         <v>45097.333333333336</v>
       </c>
       <c r="C591" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D591" s="80">
         <v>0</v>
@@ -47939,7 +47936,7 @@
         <v>45097.5</v>
       </c>
       <c r="C592" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D592" s="80">
         <v>1</v>
@@ -48010,7 +48007,7 @@
         <v>45097.541666666664</v>
       </c>
       <c r="C593" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D593" s="80">
         <v>0</v>
@@ -48081,7 +48078,7 @@
         <v>45097.708333333336</v>
       </c>
       <c r="C594" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D594" s="80">
         <v>1</v>
@@ -48152,7 +48149,7 @@
         <v>45097.875</v>
       </c>
       <c r="C595" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D595" s="80">
         <v>1</v>
@@ -48223,7 +48220,7 @@
         <v>45098.333333333336</v>
       </c>
       <c r="C596" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D596" s="80">
         <v>0</v>
@@ -48294,7 +48291,7 @@
         <v>45098.5</v>
       </c>
       <c r="C597" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D597" s="80">
         <v>1</v>
@@ -48365,7 +48362,7 @@
         <v>45098.541666666664</v>
       </c>
       <c r="C598" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D598" s="80">
         <v>0</v>
@@ -48436,7 +48433,7 @@
         <v>45098.708333333336</v>
       </c>
       <c r="C599" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D599" s="80">
         <v>1</v>
@@ -48507,7 +48504,7 @@
         <v>45099.333333333336</v>
       </c>
       <c r="C600" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D600" s="80">
         <v>0</v>
@@ -48578,7 +48575,7 @@
         <v>45099.5</v>
       </c>
       <c r="C601" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D601" s="80">
         <v>1</v>
@@ -48649,7 +48646,7 @@
         <v>45099.541666666664</v>
       </c>
       <c r="C602" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D602" s="80">
         <v>0</v>
@@ -48720,7 +48717,7 @@
         <v>45099.708333333336</v>
       </c>
       <c r="C603" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D603" s="80">
         <v>0</v>
@@ -48791,7 +48788,7 @@
         <v>45099.875</v>
       </c>
       <c r="C604" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D604" s="80">
         <v>1</v>
@@ -48862,7 +48859,7 @@
         <v>45100.333333333336</v>
       </c>
       <c r="C605" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D605" s="80">
         <v>0</v>
@@ -48933,7 +48930,7 @@
         <v>45100.5</v>
       </c>
       <c r="C606" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D606" s="80">
         <v>1</v>
@@ -49004,7 +49001,7 @@
         <v>45100.541666666664</v>
       </c>
       <c r="C607" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D607" s="80">
         <v>0</v>
@@ -49075,7 +49072,7 @@
         <v>45100.708333333336</v>
       </c>
       <c r="C608" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D608" s="80">
         <v>1</v>
@@ -49146,7 +49143,7 @@
         <v>45101.333333333336</v>
       </c>
       <c r="C609" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D609" s="80">
         <v>0</v>
@@ -49217,7 +49214,7 @@
         <v>45102.333333333336</v>
       </c>
       <c r="C610" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D610" s="80">
         <v>0</v>
@@ -49288,7 +49285,7 @@
         <v>45103.333333333336</v>
       </c>
       <c r="C611" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D611" s="80">
         <v>0</v>
@@ -49359,7 +49356,7 @@
         <v>45103.5</v>
       </c>
       <c r="C612" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D612" s="80">
         <v>1</v>
@@ -49430,7 +49427,7 @@
         <v>45103.541666666664</v>
       </c>
       <c r="C613" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D613" s="80">
         <v>0</v>
@@ -49501,7 +49498,7 @@
         <v>45103.708333333336</v>
       </c>
       <c r="C614" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D614" s="80">
         <v>1</v>
@@ -49572,7 +49569,7 @@
         <v>45104.333333333336</v>
       </c>
       <c r="C615" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D615" s="80">
         <v>0</v>
@@ -49643,7 +49640,7 @@
         <v>45104.5</v>
       </c>
       <c r="C616" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D616" s="80">
         <v>0</v>
@@ -49714,7 +49711,7 @@
         <v>45104.541666666664</v>
       </c>
       <c r="C617" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D617" s="80">
         <v>0</v>
@@ -49785,7 +49782,7 @@
         <v>45104.708333333336</v>
       </c>
       <c r="C618" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D618" s="80">
         <v>1</v>
@@ -49856,7 +49853,7 @@
         <v>45105.333333333336</v>
       </c>
       <c r="C619" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D619" s="80">
         <v>0</v>
@@ -49927,7 +49924,7 @@
         <v>45105.5</v>
       </c>
       <c r="C620" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D620" s="80">
         <v>1</v>
@@ -49998,7 +49995,7 @@
         <v>45105.541666666664</v>
       </c>
       <c r="C621" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D621" s="80">
         <v>0</v>
@@ -50069,7 +50066,7 @@
         <v>45105.708333333336</v>
       </c>
       <c r="C622" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D622" s="80">
         <v>1</v>
@@ -50140,7 +50137,7 @@
         <v>45106.333333333336</v>
       </c>
       <c r="C623" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D623" s="80">
         <v>0</v>
@@ -50211,7 +50208,7 @@
         <v>45106.5</v>
       </c>
       <c r="C624" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D624" s="80">
         <v>1</v>
@@ -50282,7 +50279,7 @@
         <v>45106.541666666664</v>
       </c>
       <c r="C625" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D625" s="80">
         <v>0</v>
@@ -50353,7 +50350,7 @@
         <v>45106.708333333336</v>
       </c>
       <c r="C626" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D626" s="80">
         <v>1</v>
@@ -50424,7 +50421,7 @@
         <v>45106.875</v>
       </c>
       <c r="C627" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D627" s="80">
         <v>1</v>
@@ -50495,7 +50492,7 @@
         <v>45107.333333333336</v>
       </c>
       <c r="C628" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D628" s="80">
         <v>0</v>
@@ -50566,7 +50563,7 @@
         <v>45107.5</v>
       </c>
       <c r="C629" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D629" s="80">
         <v>1</v>
@@ -50637,7 +50634,7 @@
         <v>45107.541666666664</v>
       </c>
       <c r="C630" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D630" s="80">
         <v>0</v>
@@ -50708,7 +50705,7 @@
         <v>45107.708333333336</v>
       </c>
       <c r="C631" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D631" s="80">
         <v>1</v>
@@ -50779,7 +50776,7 @@
         <v>45107.875</v>
       </c>
       <c r="C632" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D632" s="80">
         <v>0</v>
@@ -50850,7 +50847,7 @@
         <v>45108.333333333336</v>
       </c>
       <c r="C633" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D633" s="80">
         <v>0</v>
